--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_22.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1000000/Output_16_22.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>679577.4339224728</v>
+        <v>677026.992817977</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>10047533.18104784</v>
+        <v>10025088.5357891</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673436</v>
+        <v>603248.4937673435</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>11593018.87446711</v>
+        <v>11596888.71340729</v>
       </c>
     </row>
     <row r="11">
@@ -1367,28 +1367,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>344.5899516906537</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C11" t="n">
-        <v>327.1290017981807</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D11" t="n">
-        <v>316.5391516478561</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E11" t="n">
-        <v>343.7864800994349</v>
+        <v>340.3534402993358</v>
       </c>
       <c r="F11" t="n">
-        <v>368.7321557688846</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>372.7778356806266</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H11" t="n">
-        <v>87.69294169067862</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>3.433039800099095</v>
+        <v>0</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -1418,25 +1418,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>71.04387181534898</v>
+        <v>67.61083201524991</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>209.4182421859761</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W11" t="n">
-        <v>311.0970787445862</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X11" t="n">
-        <v>331.5872107056422</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y11" t="n">
-        <v>348.0940486832267</v>
+        <v>177.4818930938011</v>
       </c>
     </row>
     <row r="12">
@@ -1525,25 +1525,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>141.6880902091104</v>
+        <v>138.2550504090114</v>
       </c>
       <c r="C13" t="n">
-        <v>129.102931125801</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D13" t="n">
-        <v>110.4715830453855</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E13" t="n">
-        <v>108.2900726737423</v>
+        <v>30.93495374438633</v>
       </c>
       <c r="F13" t="n">
-        <v>107.2771580501044</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G13" t="n">
-        <v>127.8819182862014</v>
+        <v>124.4488784861023</v>
       </c>
       <c r="H13" t="n">
-        <v>106.6111249414939</v>
+        <v>103.1780851413949</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>47.35522289712141</v>
       </c>
       <c r="S13" t="n">
-        <v>151.625135358615</v>
+        <v>148.192095558516</v>
       </c>
       <c r="T13" t="n">
-        <v>79.85786740520278</v>
+        <v>177.9720195032433</v>
       </c>
       <c r="U13" t="n">
-        <v>248.067948232786</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V13" t="n">
-        <v>213.9937533510011</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W13" t="n">
-        <v>248.3791083637641</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X13" t="n">
-        <v>187.5657654162103</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y13" t="n">
-        <v>180.4407633792679</v>
+        <v>177.0077235791689</v>
       </c>
     </row>
     <row r="14">
@@ -1604,25 +1604,25 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>344.5899516906537</v>
+        <v>341.1569118905546</v>
       </c>
       <c r="C14" t="n">
-        <v>327.1290017981807</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
-        <v>316.5391516478561</v>
+        <v>313.106111847757</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>247.8851318054376</v>
       </c>
       <c r="F14" t="n">
-        <v>368.7321557688846</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G14" t="n">
-        <v>372.7778356806266</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>216.3479649082513</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1655,25 +1655,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>67.61083201524993</v>
       </c>
       <c r="T14" t="n">
-        <v>0</v>
+        <v>162.3410403666942</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>209.4182421859761</v>
       </c>
       <c r="V14" t="n">
-        <v>289.608368497308</v>
+        <v>286.175328697209</v>
       </c>
       <c r="W14" t="n">
-        <v>311.0970787445862</v>
+        <v>307.6640389444871</v>
       </c>
       <c r="X14" t="n">
-        <v>331.5872107056422</v>
+        <v>328.1541709055431</v>
       </c>
       <c r="Y14" t="n">
-        <v>348.0940486832267</v>
+        <v>344.6610088831277</v>
       </c>
     </row>
     <row r="15">
@@ -1704,7 +1704,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I15" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
@@ -1731,7 +1731,7 @@
         <v>0</v>
       </c>
       <c r="R15" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S15" t="n">
         <v>128.1435076414547</v>
@@ -1762,28 +1762,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>141.6880902091104</v>
+        <v>138.2550504090114</v>
       </c>
       <c r="C16" t="n">
-        <v>129.102931125801</v>
+        <v>125.6698913257019</v>
       </c>
       <c r="D16" t="n">
-        <v>110.4715830453855</v>
+        <v>107.0385432452864</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>104.8570328736432</v>
       </c>
       <c r="F16" t="n">
-        <v>107.2771580501044</v>
+        <v>103.8441182500053</v>
       </c>
       <c r="G16" t="n">
-        <v>127.8819182862014</v>
+        <v>50.52679935684496</v>
       </c>
       <c r="H16" t="n">
-        <v>106.6111249414939</v>
+        <v>103.1780851413949</v>
       </c>
       <c r="I16" t="n">
-        <v>58.20853043701126</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>50.78826269722052</v>
+        <v>47.35522289712142</v>
       </c>
       <c r="S16" t="n">
-        <v>151.6251353586151</v>
+        <v>148.192095558516</v>
       </c>
       <c r="T16" t="n">
-        <v>181.4050593033423</v>
+        <v>177.9720195032433</v>
       </c>
       <c r="U16" t="n">
-        <v>248.067948232786</v>
+        <v>244.634908432687</v>
       </c>
       <c r="V16" t="n">
-        <v>213.9937533510011</v>
+        <v>210.5607135509021</v>
       </c>
       <c r="W16" t="n">
-        <v>248.3791083637641</v>
+        <v>244.9460685636651</v>
       </c>
       <c r="X16" t="n">
-        <v>187.5657654162103</v>
+        <v>184.1327256161112</v>
       </c>
       <c r="Y16" t="n">
-        <v>78.18685102063874</v>
+        <v>177.0077235791689</v>
       </c>
     </row>
     <row r="17">
@@ -1841,25 +1841,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>326.6217422079613</v>
+        <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>309.1607923154883</v>
+        <v>314.6009296321307</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>304.0110794818061</v>
       </c>
       <c r="E17" t="n">
-        <v>325.8182706167425</v>
+        <v>331.2584079333849</v>
       </c>
       <c r="F17" t="n">
-        <v>350.7639462861922</v>
+        <v>356.2040836028346</v>
       </c>
       <c r="G17" t="n">
-        <v>354.8096261979342</v>
+        <v>34.13302978998661</v>
       </c>
       <c r="H17" t="n">
-        <v>238.4956649318012</v>
+        <v>243.9358022484436</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>53.07566233265662</v>
+        <v>58.515799649299</v>
       </c>
       <c r="T17" t="n">
-        <v>59.2431945364465</v>
+        <v>153.2460080007433</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>200.3232098200251</v>
       </c>
       <c r="V17" t="n">
-        <v>271.6401590146156</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W17" t="n">
-        <v>293.1288692618937</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X17" t="n">
-        <v>313.6190012229497</v>
+        <v>319.0591385395922</v>
       </c>
       <c r="Y17" t="n">
-        <v>330.1258392005343</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="18">
@@ -1938,10 +1938,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H18" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I18" t="n">
-        <v>18.81721868247746</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J18" t="n">
         <v>0</v>
@@ -1968,7 +1968,7 @@
         <v>0</v>
       </c>
       <c r="R18" t="n">
-        <v>0.1429098734098773</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S18" t="n">
         <v>128.1435076414547</v>
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>123.719880726418</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C19" t="n">
-        <v>111.1347216431086</v>
+        <v>116.574858959751</v>
       </c>
       <c r="D19" t="n">
-        <v>92.5033735626931</v>
+        <v>97.94351087933552</v>
       </c>
       <c r="E19" t="n">
-        <v>90.32186319104991</v>
+        <v>95.76200050769233</v>
       </c>
       <c r="F19" t="n">
-        <v>89.30894856741199</v>
+        <v>94.74908588405441</v>
       </c>
       <c r="G19" t="n">
-        <v>109.913708803509</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H19" t="n">
-        <v>88.64291545880153</v>
+        <v>94.08305277544395</v>
       </c>
       <c r="I19" t="n">
-        <v>40.24032095431886</v>
+        <v>45.68045827096126</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>32.82005321452812</v>
+        <v>38.26019053117049</v>
       </c>
       <c r="S19" t="n">
-        <v>133.6569258759226</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T19" t="n">
-        <v>163.4368498206499</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U19" t="n">
-        <v>230.0997387500936</v>
+        <v>235.539876066736</v>
       </c>
       <c r="V19" t="n">
-        <v>196.0255438683087</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W19" t="n">
-        <v>230.4108988810717</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X19" t="n">
-        <v>169.5975559335179</v>
+        <v>175.0376932501603</v>
       </c>
       <c r="Y19" t="n">
-        <v>162.4725538965755</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="20">
@@ -2078,25 +2078,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>326.6217422079613</v>
+        <v>332.0618795246037</v>
       </c>
       <c r="C20" t="n">
-        <v>309.1607923154883</v>
+        <v>314.6009296321307</v>
       </c>
       <c r="D20" t="n">
-        <v>298.5709421651637</v>
+        <v>304.0110794818061</v>
       </c>
       <c r="E20" t="n">
-        <v>325.8182706167425</v>
+        <v>277.265360447211</v>
       </c>
       <c r="F20" t="n">
-        <v>350.7639462861922</v>
+        <v>356.2040836028346</v>
       </c>
       <c r="G20" t="n">
-        <v>354.8096261979342</v>
+        <v>0</v>
       </c>
       <c r="H20" t="n">
-        <v>129.0006661469736</v>
+        <v>0</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>58.51579964929901</v>
       </c>
       <c r="T20" t="n">
-        <v>1.13686837721616e-13</v>
+        <v>153.2460080007433</v>
       </c>
       <c r="U20" t="n">
-        <v>194.8830725033827</v>
+        <v>200.3232098200251</v>
       </c>
       <c r="V20" t="n">
-        <v>0</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W20" t="n">
-        <v>293.1288692618937</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X20" t="n">
-        <v>313.6190012229497</v>
+        <v>319.0591385395922</v>
       </c>
       <c r="Y20" t="n">
-        <v>330.1258392005343</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="21">
@@ -2178,7 +2178,7 @@
         <v>89.59687541851116</v>
       </c>
       <c r="I21" t="n">
-        <v>18.81721868247745</v>
+        <v>18.8172186824763</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -2205,7 +2205,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>0.1429098734089393</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S21" t="n">
         <v>128.1435076414547</v>
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>123.719880726418</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C22" t="n">
-        <v>111.1347216431086</v>
+        <v>116.574858959751</v>
       </c>
       <c r="D22" t="n">
-        <v>92.5033735626931</v>
+        <v>97.94351087933552</v>
       </c>
       <c r="E22" t="n">
-        <v>90.32186319104991</v>
+        <v>95.76200050769233</v>
       </c>
       <c r="F22" t="n">
-        <v>89.30894856741199</v>
+        <v>94.74908588405441</v>
       </c>
       <c r="G22" t="n">
-        <v>109.913708803509</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H22" t="n">
-        <v>88.64291545880153</v>
+        <v>94.08305277544395</v>
       </c>
       <c r="I22" t="n">
-        <v>40.24032095431885</v>
+        <v>45.68045827096127</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>32.82005321452809</v>
+        <v>38.26019053117051</v>
       </c>
       <c r="S22" t="n">
-        <v>133.6569258759226</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T22" t="n">
-        <v>163.4368498206499</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U22" t="n">
-        <v>230.0997387500936</v>
+        <v>235.539876066736</v>
       </c>
       <c r="V22" t="n">
-        <v>196.0255438683087</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W22" t="n">
-        <v>230.4108988810717</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X22" t="n">
-        <v>169.5975559335179</v>
+        <v>175.0376932501603</v>
       </c>
       <c r="Y22" t="n">
-        <v>162.4725538965755</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="23">
@@ -2315,25 +2315,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>326.6217422079613</v>
+        <v>332.0618795246037</v>
       </c>
       <c r="C23" t="n">
-        <v>309.1607923154883</v>
+        <v>314.6009296321307</v>
       </c>
       <c r="D23" t="n">
-        <v>298.5709421651637</v>
+        <v>304.0110794818061</v>
       </c>
       <c r="E23" t="n">
-        <v>325.8182706167425</v>
+        <v>331.2584079333849</v>
       </c>
       <c r="F23" t="n">
-        <v>350.7639462861922</v>
+        <v>356.2040836028346</v>
       </c>
       <c r="G23" t="n">
-        <v>354.8096261979342</v>
+        <v>360.2497635145766</v>
       </c>
       <c r="H23" t="n">
-        <v>238.4956649318012</v>
+        <v>243.9358022484436</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2366,25 +2366,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>53.07566233265658</v>
+        <v>58.51579964929901</v>
       </c>
       <c r="T23" t="n">
-        <v>147.8058706841009</v>
+        <v>153.2460080007433</v>
       </c>
       <c r="U23" t="n">
-        <v>194.8830725033827</v>
+        <v>200.3232098200251</v>
       </c>
       <c r="V23" t="n">
-        <v>271.6401590146156</v>
+        <v>277.0802963312581</v>
       </c>
       <c r="W23" t="n">
-        <v>293.1288692618937</v>
+        <v>298.5690065785362</v>
       </c>
       <c r="X23" t="n">
-        <v>313.6190012229497</v>
+        <v>319.0591385395922</v>
       </c>
       <c r="Y23" t="n">
-        <v>330.1258392005343</v>
+        <v>335.5659765171768</v>
       </c>
     </row>
     <row r="24">
@@ -2412,10 +2412,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H24" t="n">
-        <v>89.59687541851115</v>
+        <v>89.59687541851116</v>
       </c>
       <c r="I24" t="n">
-        <v>18.81721868247742</v>
+        <v>18.81721868247745</v>
       </c>
       <c r="J24" t="n">
         <v>0</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="R24" t="n">
-        <v>0.1429098734098204</v>
+        <v>0.1429098734098488</v>
       </c>
       <c r="S24" t="n">
         <v>128.1435076414547</v>
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>123.719880726418</v>
+        <v>129.1600180430605</v>
       </c>
       <c r="C25" t="n">
-        <v>111.1347216431086</v>
+        <v>116.574858959751</v>
       </c>
       <c r="D25" t="n">
-        <v>92.5033735626931</v>
+        <v>97.94351087933552</v>
       </c>
       <c r="E25" t="n">
-        <v>90.32186319104991</v>
+        <v>95.76200050769233</v>
       </c>
       <c r="F25" t="n">
-        <v>89.30894856741199</v>
+        <v>94.74908588405441</v>
       </c>
       <c r="G25" t="n">
-        <v>109.913708803509</v>
+        <v>115.3538461201514</v>
       </c>
       <c r="H25" t="n">
-        <v>88.64291545880153</v>
+        <v>94.08305277544395</v>
       </c>
       <c r="I25" t="n">
-        <v>40.24032095431884</v>
+        <v>45.68045827096127</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>32.82005321452807</v>
+        <v>38.26019053117051</v>
       </c>
       <c r="S25" t="n">
-        <v>133.6569258759226</v>
+        <v>139.0970631925651</v>
       </c>
       <c r="T25" t="n">
-        <v>163.4368498206499</v>
+        <v>168.8769871372924</v>
       </c>
       <c r="U25" t="n">
-        <v>230.0997387500936</v>
+        <v>235.539876066736</v>
       </c>
       <c r="V25" t="n">
-        <v>196.0255438683087</v>
+        <v>201.4656811849512</v>
       </c>
       <c r="W25" t="n">
-        <v>230.4108988810717</v>
+        <v>235.8510361977142</v>
       </c>
       <c r="X25" t="n">
-        <v>169.5975559335179</v>
+        <v>175.0376932501603</v>
       </c>
       <c r="Y25" t="n">
-        <v>162.4725538965755</v>
+        <v>167.912691213218</v>
       </c>
     </row>
     <row r="26">
@@ -2558,16 +2558,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D26" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E26" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F26" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G26" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H26" t="n">
         <v>247.6326277687279</v>
@@ -2615,10 +2615,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W26" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X26" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y26" t="n">
         <v>339.262802037461</v>
@@ -2713,25 +2713,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C28" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D28" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E28" t="n">
-        <v>99.4588260279766</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F28" t="n">
-        <v>98.44591140433867</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G28" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H28" t="n">
-        <v>97.77987829572821</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I28" t="n">
-        <v>49.37728379124554</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,7 +2758,7 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S28" t="n">
         <v>142.7938887128493</v>
@@ -2965,7 +2965,7 @@
         <v>119.0506716404357</v>
       </c>
       <c r="H31" t="n">
-        <v>97.77987829572822</v>
+        <v>97.77987829572726</v>
       </c>
       <c r="I31" t="n">
         <v>49.37728379124555</v>
@@ -3032,16 +3032,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D32" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E32" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F32" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G32" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H32" t="n">
         <v>247.6326277687279</v>
@@ -3077,7 +3077,7 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958328</v>
       </c>
       <c r="T32" t="n">
         <v>156.9428335210276</v>
@@ -3089,10 +3089,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W32" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X32" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y32" t="n">
         <v>339.262802037461</v>
@@ -3123,10 +3123,10 @@
         <v>134.9994691657081</v>
       </c>
       <c r="H33" t="n">
-        <v>89.59687541851116</v>
+        <v>89.59687541851115</v>
       </c>
       <c r="I33" t="n">
-        <v>18.81721868247745</v>
+        <v>18.81721868247742</v>
       </c>
       <c r="J33" t="n">
         <v>0</v>
@@ -3153,7 +3153,7 @@
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0.1429098734098488</v>
+        <v>0.1429098734098204</v>
       </c>
       <c r="S33" t="n">
         <v>128.1435076414547</v>
@@ -3187,25 +3187,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C34" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D34" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E34" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F34" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G34" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H34" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I34" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124554</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,7 +3232,7 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145477</v>
       </c>
       <c r="S34" t="n">
         <v>142.7938887128493</v>
@@ -3506,16 +3506,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D38" t="n">
-        <v>307.7079050020904</v>
+        <v>307.7079050020903</v>
       </c>
       <c r="E38" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F38" t="n">
-        <v>359.9009091231189</v>
+        <v>359.9009091231188</v>
       </c>
       <c r="G38" t="n">
-        <v>363.9465890348609</v>
+        <v>363.9465890348608</v>
       </c>
       <c r="H38" t="n">
         <v>247.6326277687279</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>62.21262516958329</v>
+        <v>62.21262516958326</v>
       </c>
       <c r="T38" t="n">
         <v>156.9428335210276</v>
@@ -3563,10 +3563,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W38" t="n">
-        <v>302.2658320988205</v>
+        <v>302.2658320988204</v>
       </c>
       <c r="X38" t="n">
-        <v>322.7559640598765</v>
+        <v>322.7559640598764</v>
       </c>
       <c r="Y38" t="n">
         <v>339.262802037461</v>
@@ -3661,25 +3661,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C40" t="n">
-        <v>120.2716844800353</v>
+        <v>120.2716844800352</v>
       </c>
       <c r="D40" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E40" t="n">
-        <v>99.45882602797661</v>
+        <v>99.45882602797658</v>
       </c>
       <c r="F40" t="n">
-        <v>98.44591140433869</v>
+        <v>98.44591140433866</v>
       </c>
       <c r="G40" t="n">
-        <v>119.0506716404357</v>
+        <v>119.0506716404356</v>
       </c>
       <c r="H40" t="n">
-        <v>97.77987829572822</v>
+        <v>97.7798782957282</v>
       </c>
       <c r="I40" t="n">
-        <v>49.37728379124555</v>
+        <v>49.37728379124552</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.95701605145479</v>
+        <v>41.95701605145476</v>
       </c>
       <c r="S40" t="n">
         <v>142.7938887128493</v>
@@ -3980,16 +3980,16 @@
         <v>318.297755152415</v>
       </c>
       <c r="D44" t="n">
-        <v>307.7079050020903</v>
+        <v>307.7079050020904</v>
       </c>
       <c r="E44" t="n">
         <v>334.9552334536692</v>
       </c>
       <c r="F44" t="n">
-        <v>359.9009091231188</v>
+        <v>359.9009091231189</v>
       </c>
       <c r="G44" t="n">
-        <v>363.9465890348608</v>
+        <v>363.9465890348609</v>
       </c>
       <c r="H44" t="n">
         <v>247.6326277687279</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>62.21262516958326</v>
+        <v>62.21262516958329</v>
       </c>
       <c r="T44" t="n">
         <v>156.9428335210276</v>
@@ -4037,10 +4037,10 @@
         <v>280.7771218515423</v>
       </c>
       <c r="W44" t="n">
-        <v>302.2658320988204</v>
+        <v>302.2658320988205</v>
       </c>
       <c r="X44" t="n">
-        <v>322.7559640598764</v>
+        <v>322.7559640598765</v>
       </c>
       <c r="Y44" t="n">
         <v>339.262802037461</v>
@@ -4135,25 +4135,25 @@
         <v>132.8568435633447</v>
       </c>
       <c r="C46" t="n">
-        <v>120.2716844800352</v>
+        <v>120.2716844800353</v>
       </c>
       <c r="D46" t="n">
         <v>101.6403363996198</v>
       </c>
       <c r="E46" t="n">
-        <v>99.45882602797658</v>
+        <v>99.45882602797661</v>
       </c>
       <c r="F46" t="n">
-        <v>98.44591140433866</v>
+        <v>98.44591140433869</v>
       </c>
       <c r="G46" t="n">
-        <v>119.0506716404356</v>
+        <v>119.0506716404357</v>
       </c>
       <c r="H46" t="n">
-        <v>97.7798782957282</v>
+        <v>97.77987829572822</v>
       </c>
       <c r="I46" t="n">
-        <v>49.37728379124552</v>
+        <v>49.37728379124555</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.95701605145476</v>
+        <v>41.95701605145479</v>
       </c>
       <c r="S46" t="n">
         <v>142.7938887128493</v>
@@ -5015,46 +5015,46 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1904.987476518811</v>
+        <v>1426.613439690468</v>
       </c>
       <c r="C11" t="n">
-        <v>1574.554141369133</v>
+        <v>1099.647821510588</v>
       </c>
       <c r="D11" t="n">
-        <v>1254.817624553117</v>
+        <v>783.3790216643686</v>
       </c>
       <c r="E11" t="n">
-        <v>907.5585537456067</v>
+        <v>439.5876678266557</v>
       </c>
       <c r="F11" t="n">
-        <v>535.1018307467333</v>
+        <v>439.5876678266557</v>
       </c>
       <c r="G11" t="n">
-        <v>158.5585623824643</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="H11" t="n">
-        <v>69.97983340198047</v>
+        <v>66.51211643218343</v>
       </c>
       <c r="I11" t="n">
         <v>66.51211643218343</v>
       </c>
       <c r="J11" t="n">
-        <v>255.3912473912092</v>
+        <v>255.3912473912083</v>
       </c>
       <c r="K11" t="n">
-        <v>589.2106210810571</v>
+        <v>589.2106210810548</v>
       </c>
       <c r="L11" t="n">
-        <v>1040.244834329465</v>
+        <v>1040.244834329463</v>
       </c>
       <c r="M11" t="n">
-        <v>1573.77673900139</v>
+        <v>1573.776739001388</v>
       </c>
       <c r="N11" t="n">
-        <v>2120.555556060172</v>
+        <v>2120.55555606017</v>
       </c>
       <c r="O11" t="n">
-        <v>2623.528026939509</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P11" t="n">
         <v>3018.302393296687</v>
@@ -5063,28 +5063,28 @@
         <v>3266.588755052369</v>
       </c>
       <c r="R11" t="n">
-        <v>3325.605821609172</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S11" t="n">
-        <v>3253.844334927001</v>
+        <v>3257.312051896798</v>
       </c>
       <c r="T11" t="n">
-        <v>3253.844334927001</v>
+        <v>3093.331203041551</v>
       </c>
       <c r="U11" t="n">
-        <v>3253.844334927001</v>
+        <v>2881.797625075918</v>
       </c>
       <c r="V11" t="n">
-        <v>3253.844334927001</v>
+        <v>2592.731636492879</v>
       </c>
       <c r="W11" t="n">
-        <v>2939.604861447621</v>
+        <v>2281.959879983296</v>
       </c>
       <c r="X11" t="n">
-        <v>2604.668284977276</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y11" t="n">
-        <v>2253.058134792198</v>
+        <v>1771.216380994059</v>
       </c>
     </row>
     <row r="12">
@@ -5094,22 +5094,22 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>941.5438544811091</v>
+        <v>941.5438544811086</v>
       </c>
       <c r="C12" t="n">
-        <v>767.0908251999821</v>
+        <v>767.0908251999816</v>
       </c>
       <c r="D12" t="n">
-        <v>618.1564155387309</v>
+        <v>618.1564155387305</v>
       </c>
       <c r="E12" t="n">
-        <v>458.9189605332754</v>
+        <v>458.9189605332749</v>
       </c>
       <c r="F12" t="n">
-        <v>312.3844025601604</v>
+        <v>312.38440256016</v>
       </c>
       <c r="G12" t="n">
-        <v>176.021302392779</v>
+        <v>176.0213023927788</v>
       </c>
       <c r="H12" t="n">
         <v>85.51940803064633</v>
@@ -5118,10 +5118,10 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J12" t="n">
-        <v>160.1893859228011</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K12" t="n">
-        <v>398.453584903148</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L12" t="n">
         <v>765.1517452158135</v>
@@ -5139,7 +5139,7 @@
         <v>2407.411984886742</v>
       </c>
       <c r="Q12" t="n">
-        <v>2565.053542533342</v>
+        <v>2565.053542533341</v>
       </c>
       <c r="R12" t="n">
         <v>2564.909189125857</v>
@@ -5148,16 +5148,16 @@
         <v>2435.471302619337</v>
       </c>
       <c r="T12" t="n">
-        <v>2242.828302297193</v>
+        <v>2242.828302297192</v>
       </c>
       <c r="U12" t="n">
         <v>2014.760455431608</v>
       </c>
       <c r="V12" t="n">
-        <v>1779.608347199866</v>
+        <v>1779.608347199865</v>
       </c>
       <c r="W12" t="n">
-        <v>1525.370990471664</v>
+        <v>1525.370990471663</v>
       </c>
       <c r="X12" t="n">
         <v>1317.519490266131</v>
@@ -5173,22 +5173,22 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>763.1129125157477</v>
+        <v>667.6378438997363</v>
       </c>
       <c r="C13" t="n">
-        <v>632.7059113785749</v>
+        <v>540.6985597323605</v>
       </c>
       <c r="D13" t="n">
-        <v>521.1184537569734</v>
+        <v>432.5788190805561</v>
       </c>
       <c r="E13" t="n">
-        <v>411.7345419653145</v>
+        <v>401.3313910559234</v>
       </c>
       <c r="F13" t="n">
-        <v>303.3737762581384</v>
+        <v>296.4383423185443</v>
       </c>
       <c r="G13" t="n">
-        <v>174.2001214235914</v>
+        <v>170.7324044537945</v>
       </c>
       <c r="H13" t="n">
         <v>66.51211643218343</v>
@@ -5197,52 +5197,52 @@
         <v>66.51211643218343</v>
       </c>
       <c r="J13" t="n">
-        <v>149.3971999522174</v>
+        <v>152.7959093543157</v>
       </c>
       <c r="K13" t="n">
-        <v>391.1468339741924</v>
+        <v>397.9442527783888</v>
       </c>
       <c r="L13" t="n">
-        <v>745.4690834957871</v>
+        <v>755.6652117020817</v>
       </c>
       <c r="M13" t="n">
-        <v>1127.388580168435</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N13" t="n">
-        <v>1506.559407947398</v>
+        <v>1523.552954957889</v>
       </c>
       <c r="O13" t="n">
-        <v>1843.65145794091</v>
+        <v>1864.043714353499</v>
       </c>
       <c r="P13" t="n">
-        <v>2114.021409447668</v>
+        <v>2137.812375262355</v>
       </c>
       <c r="Q13" t="n">
-        <v>2229.394156673281</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R13" t="n">
-        <v>2229.394156673281</v>
+        <v>2208.750273408125</v>
       </c>
       <c r="S13" t="n">
-        <v>2076.237454290841</v>
+        <v>2059.061287995483</v>
       </c>
       <c r="T13" t="n">
-        <v>1995.572941760334</v>
+        <v>1879.29157132554</v>
       </c>
       <c r="U13" t="n">
-        <v>1744.999256676711</v>
+        <v>1632.185603211715</v>
       </c>
       <c r="V13" t="n">
-        <v>1528.843950261559</v>
+        <v>1419.498013766359</v>
       </c>
       <c r="W13" t="n">
-        <v>1277.955962015332</v>
+        <v>1172.07774248993</v>
       </c>
       <c r="X13" t="n">
-        <v>1088.495592908049</v>
+        <v>986.0850903524436</v>
       </c>
       <c r="Y13" t="n">
-        <v>906.2321955552532</v>
+        <v>807.2894099694447</v>
       </c>
     </row>
     <row r="14">
@@ -5252,28 +5252,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1684.215257648142</v>
+        <v>1257.745645963875</v>
       </c>
       <c r="C14" t="n">
-        <v>1353.781922498465</v>
+        <v>1257.745645963875</v>
       </c>
       <c r="D14" t="n">
-        <v>1034.045405682449</v>
+        <v>941.476846117656</v>
       </c>
       <c r="E14" t="n">
-        <v>1034.045405682449</v>
+        <v>691.0878240919615</v>
       </c>
       <c r="F14" t="n">
-        <v>661.5886826835751</v>
+        <v>322.0988180628851</v>
       </c>
       <c r="G14" t="n">
-        <v>285.0454143193059</v>
+        <v>322.0988180628851</v>
       </c>
       <c r="H14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I14" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J14" t="n">
         <v>255.3912473912087</v>
@@ -5282,7 +5282,7 @@
         <v>589.2106210810548</v>
       </c>
       <c r="L14" t="n">
-        <v>1040.244834329463</v>
+        <v>1040.244834329464</v>
       </c>
       <c r="M14" t="n">
         <v>1573.776739001388</v>
@@ -5297,31 +5297,31 @@
         <v>3018.302393296685</v>
       </c>
       <c r="Q14" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R14" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S14" t="n">
-        <v>3325.60582160917</v>
+        <v>3257.312051896797</v>
       </c>
       <c r="T14" t="n">
-        <v>3325.60582160917</v>
+        <v>3093.33120304155</v>
       </c>
       <c r="U14" t="n">
-        <v>3325.60582160917</v>
+        <v>2881.797625075917</v>
       </c>
       <c r="V14" t="n">
-        <v>3033.072116056333</v>
+        <v>2592.731636492878</v>
       </c>
       <c r="W14" t="n">
-        <v>2718.832642576953</v>
+        <v>2281.959879983295</v>
       </c>
       <c r="X14" t="n">
-        <v>2383.896066106607</v>
+        <v>1950.491020482747</v>
       </c>
       <c r="Y14" t="n">
-        <v>2032.28591592153</v>
+        <v>1602.348587267466</v>
       </c>
     </row>
     <row r="15">
@@ -5352,16 +5352,16 @@
         <v>85.51940803064548</v>
       </c>
       <c r="I15" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J15" t="n">
-        <v>160.1893859228006</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K15" t="n">
-        <v>398.4535849031476</v>
+        <v>398.4535849031478</v>
       </c>
       <c r="L15" t="n">
-        <v>765.1517452158128</v>
+        <v>765.151745215813</v>
       </c>
       <c r="M15" t="n">
         <v>1212.428070438129</v>
@@ -5370,7 +5370,7 @@
         <v>1685.951113992583</v>
       </c>
       <c r="O15" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P15" t="n">
         <v>2407.411984886741</v>
@@ -5410,76 +5410,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>712.525496115009</v>
+        <v>667.6378438997355</v>
       </c>
       <c r="C16" t="n">
-        <v>582.1184949778363</v>
+        <v>540.6985597323597</v>
       </c>
       <c r="D16" t="n">
-        <v>470.5310373562348</v>
+        <v>432.5788190805554</v>
       </c>
       <c r="E16" t="n">
-        <v>470.5310373562348</v>
+        <v>326.6626242586934</v>
       </c>
       <c r="F16" t="n">
-        <v>362.1702716490587</v>
+        <v>221.7695755213142</v>
       </c>
       <c r="G16" t="n">
-        <v>232.9966168145118</v>
+        <v>170.7324044537944</v>
       </c>
       <c r="H16" t="n">
-        <v>125.3086118231038</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I16" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J16" t="n">
-        <v>149.3971999522175</v>
+        <v>152.7959093543156</v>
       </c>
       <c r="K16" t="n">
-        <v>391.1468339741924</v>
+        <v>397.9442527783885</v>
       </c>
       <c r="L16" t="n">
-        <v>745.4690834957871</v>
+        <v>755.6652117020814</v>
       </c>
       <c r="M16" t="n">
-        <v>1127.388580168435</v>
+        <v>1140.983417776827</v>
       </c>
       <c r="N16" t="n">
-        <v>1506.559407947398</v>
+        <v>1523.552954957888</v>
       </c>
       <c r="O16" t="n">
-        <v>1843.651457940909</v>
+        <v>1864.043714353498</v>
       </c>
       <c r="P16" t="n">
-        <v>2114.021409447667</v>
+        <v>2137.812375262354</v>
       </c>
       <c r="Q16" t="n">
-        <v>2229.394156673281</v>
+        <v>2256.583831890066</v>
       </c>
       <c r="R16" t="n">
-        <v>2178.092881221543</v>
+        <v>2208.750273408124</v>
       </c>
       <c r="S16" t="n">
-        <v>2024.936178839104</v>
+        <v>2059.061287995482</v>
       </c>
       <c r="T16" t="n">
-        <v>1841.698745199364</v>
+        <v>1879.291571325539</v>
       </c>
       <c r="U16" t="n">
-        <v>1591.125060115741</v>
+        <v>1632.185603211714</v>
       </c>
       <c r="V16" t="n">
-        <v>1374.969753700589</v>
+        <v>1419.498013766358</v>
       </c>
       <c r="W16" t="n">
-        <v>1124.081765454362</v>
+        <v>1172.077742489929</v>
       </c>
       <c r="X16" t="n">
-        <v>934.6213963470792</v>
+        <v>986.0850903524428</v>
       </c>
       <c r="Y16" t="n">
-        <v>855.6447791545145</v>
+        <v>807.2894099694439</v>
       </c>
     </row>
     <row r="17">
@@ -5489,34 +5489,34 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1661.510399612141</v>
+        <v>1666.656896925705</v>
       </c>
       <c r="C17" t="n">
-        <v>1349.226771010638</v>
+        <v>1348.878180125573</v>
       </c>
       <c r="D17" t="n">
-        <v>1349.226771010638</v>
+        <v>1041.796281659103</v>
       </c>
       <c r="E17" t="n">
-        <v>1020.117406751302</v>
+        <v>707.191829201138</v>
       </c>
       <c r="F17" t="n">
-        <v>665.8103903006029</v>
+        <v>347.3897245518101</v>
       </c>
       <c r="G17" t="n">
-        <v>307.4168284845077</v>
+        <v>312.9119166831366</v>
       </c>
       <c r="H17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I17" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J17" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912085</v>
       </c>
       <c r="K17" t="n">
-        <v>589.2106210810548</v>
+        <v>589.210621081055</v>
       </c>
       <c r="L17" t="n">
         <v>1040.244834329464</v>
@@ -5525,40 +5525,40 @@
         <v>1573.776739001388</v>
       </c>
       <c r="N17" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060171</v>
       </c>
       <c r="O17" t="n">
-        <v>2623.528026939506</v>
+        <v>2623.528026939508</v>
       </c>
       <c r="P17" t="n">
-        <v>3018.302393296684</v>
+        <v>3018.302393296686</v>
       </c>
       <c r="Q17" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R17" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S17" t="n">
-        <v>3271.994041475173</v>
+        <v>3266.498953276546</v>
       </c>
       <c r="T17" t="n">
-        <v>3212.152430832298</v>
+        <v>3111.705005801047</v>
       </c>
       <c r="U17" t="n">
-        <v>3212.152430832298</v>
+        <v>2909.358329215163</v>
       </c>
       <c r="V17" t="n">
-        <v>2937.768431827636</v>
+        <v>2629.479242011872</v>
       </c>
       <c r="W17" t="n">
-        <v>2641.67866489643</v>
+        <v>2327.894386882037</v>
       </c>
       <c r="X17" t="n">
-        <v>2324.891794974258</v>
+        <v>2005.612428761237</v>
       </c>
       <c r="Y17" t="n">
-        <v>1991.431351337355</v>
+        <v>1666.656896925705</v>
       </c>
     </row>
     <row r="18">
@@ -5583,31 +5583,31 @@
         <v>312.3844025601599</v>
       </c>
       <c r="G18" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927779</v>
       </c>
       <c r="H18" t="n">
-        <v>85.51940803064548</v>
+        <v>85.51940803064545</v>
       </c>
       <c r="I18" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J18" t="n">
-        <v>160.1893859228021</v>
+        <v>160.1893859228007</v>
       </c>
       <c r="K18" t="n">
-        <v>398.4535849031491</v>
+        <v>398.4535849031479</v>
       </c>
       <c r="L18" t="n">
-        <v>765.1517452158142</v>
+        <v>765.1517452158132</v>
       </c>
       <c r="M18" t="n">
-        <v>1212.42807043813</v>
+        <v>1212.428070438129</v>
       </c>
       <c r="N18" t="n">
-        <v>1685.951113992584</v>
+        <v>1685.951113992583</v>
       </c>
       <c r="O18" t="n">
-        <v>2096.912393410639</v>
+        <v>2096.912393410638</v>
       </c>
       <c r="P18" t="n">
         <v>2407.411984886741</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>694.8614620694491</v>
+        <v>733.32707945985</v>
       </c>
       <c r="C19" t="n">
-        <v>582.6041674804505</v>
+        <v>615.5746966722227</v>
       </c>
       <c r="D19" t="n">
-        <v>489.1664164070231</v>
+        <v>516.6418574001666</v>
       </c>
       <c r="E19" t="n">
-        <v>397.9322111635383</v>
+        <v>419.9125639580532</v>
       </c>
       <c r="F19" t="n">
-        <v>307.7211520045363</v>
+        <v>324.2064166004224</v>
       </c>
       <c r="G19" t="n">
-        <v>196.6972037181636</v>
+        <v>207.687380115421</v>
       </c>
       <c r="H19" t="n">
-        <v>107.1589052749297</v>
+        <v>112.6539934735584</v>
       </c>
       <c r="I19" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J19" t="n">
-        <v>111.6347488791189</v>
+        <v>161.799991396607</v>
       </c>
       <c r="K19" t="n">
-        <v>315.6219318279952</v>
+        <v>415.9524168629715</v>
       </c>
       <c r="L19" t="n">
-        <v>632.1817302764912</v>
+        <v>732.5122153114676</v>
       </c>
       <c r="M19" t="n">
-        <v>978.5098577980766</v>
+        <v>1126.834503428505</v>
       </c>
       <c r="N19" t="n">
-        <v>1375.469212964905</v>
+        <v>1518.408122651857</v>
       </c>
       <c r="O19" t="n">
-        <v>1730.349790346283</v>
+        <v>1867.902964089759</v>
       </c>
       <c r="P19" t="n">
-        <v>2018.508269240906</v>
+        <v>2111.815416362441</v>
       </c>
       <c r="Q19" t="n">
-        <v>2151.669543854385</v>
+        <v>2239.590955032444</v>
       </c>
       <c r="R19" t="n">
-        <v>2118.517974950821</v>
+        <v>2200.944297930251</v>
       </c>
       <c r="S19" t="n">
-        <v>1983.510979116556</v>
+        <v>2060.442213897357</v>
       </c>
       <c r="T19" t="n">
-        <v>1818.42325202499</v>
+        <v>1889.859398607163</v>
       </c>
       <c r="U19" t="n">
-        <v>1585.999273489542</v>
+        <v>1651.940331873086</v>
       </c>
       <c r="V19" t="n">
-        <v>1387.993673622564</v>
+        <v>1448.439643807479</v>
       </c>
       <c r="W19" t="n">
-        <v>1155.255391924511</v>
+        <v>1210.206273910798</v>
       </c>
       <c r="X19" t="n">
-        <v>983.9447293654023</v>
+        <v>1033.40052315306</v>
       </c>
       <c r="Y19" t="n">
-        <v>819.8310385607805</v>
+        <v>863.79174414981</v>
       </c>
     </row>
     <row r="20">
@@ -5726,76 +5726,76 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1852.49620100642</v>
+        <v>1331.240857001863</v>
       </c>
       <c r="C20" t="n">
-        <v>1540.212572404917</v>
+        <v>1013.462140201731</v>
       </c>
       <c r="D20" t="n">
-        <v>1238.625762137075</v>
+        <v>706.3802417352604</v>
       </c>
       <c r="E20" t="n">
-        <v>909.5163978777389</v>
+        <v>426.3142210815113</v>
       </c>
       <c r="F20" t="n">
-        <v>555.2093814270397</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="G20" t="n">
-        <v>196.8158196109446</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="H20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="I20" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J20" t="n">
-        <v>255.3912473912087</v>
+        <v>255.3912473912096</v>
       </c>
       <c r="K20" t="n">
-        <v>589.210621081055</v>
+        <v>589.2106210810562</v>
       </c>
       <c r="L20" t="n">
-        <v>1040.244834329464</v>
+        <v>1040.244834329465</v>
       </c>
       <c r="M20" t="n">
-        <v>1573.776739001388</v>
+        <v>1573.77673900139</v>
       </c>
       <c r="N20" t="n">
-        <v>2120.55555606017</v>
+        <v>2120.555556060172</v>
       </c>
       <c r="O20" t="n">
-        <v>2623.528026939507</v>
+        <v>2623.528026939509</v>
       </c>
       <c r="P20" t="n">
-        <v>3018.302393296685</v>
+        <v>3018.302393296687</v>
       </c>
       <c r="Q20" t="n">
-        <v>3266.588755052367</v>
+        <v>3266.588755052368</v>
       </c>
       <c r="R20" t="n">
-        <v>3325.60582160917</v>
+        <v>3325.605821609171</v>
       </c>
       <c r="S20" t="n">
-        <v>3325.60582160917</v>
+        <v>3266.498953276545</v>
       </c>
       <c r="T20" t="n">
-        <v>3325.60582160917</v>
+        <v>3111.705005801047</v>
       </c>
       <c r="U20" t="n">
-        <v>3128.754233221915</v>
+        <v>2909.358329215163</v>
       </c>
       <c r="V20" t="n">
-        <v>3128.754233221915</v>
+        <v>2629.479242011872</v>
       </c>
       <c r="W20" t="n">
-        <v>2832.664466290709</v>
+        <v>2327.894386882037</v>
       </c>
       <c r="X20" t="n">
-        <v>2515.877596368537</v>
+        <v>2005.612428761238</v>
       </c>
       <c r="Y20" t="n">
-        <v>2182.417152731634</v>
+        <v>1666.656896925705</v>
       </c>
     </row>
     <row r="21">
@@ -5805,28 +5805,28 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>941.5438544811087</v>
+        <v>941.5438544811075</v>
       </c>
       <c r="C21" t="n">
-        <v>767.0908251999817</v>
+        <v>767.0908251999805</v>
       </c>
       <c r="D21" t="n">
-        <v>618.1564155387305</v>
+        <v>618.1564155387292</v>
       </c>
       <c r="E21" t="n">
-        <v>458.9189605332749</v>
+        <v>458.9189605332737</v>
       </c>
       <c r="F21" t="n">
-        <v>312.3844025601599</v>
+        <v>312.3844025601587</v>
       </c>
       <c r="G21" t="n">
-        <v>176.021302392778</v>
+        <v>176.0213023927768</v>
       </c>
       <c r="H21" t="n">
-        <v>85.51940803064545</v>
+        <v>85.51940803064433</v>
       </c>
       <c r="I21" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J21" t="n">
         <v>160.1893859228007</v>
@@ -5853,28 +5853,28 @@
         <v>2565.05354253334</v>
       </c>
       <c r="R21" t="n">
-        <v>2564.909189125856</v>
+        <v>2564.909189125855</v>
       </c>
       <c r="S21" t="n">
-        <v>2435.471302619336</v>
+        <v>2435.471302619335</v>
       </c>
       <c r="T21" t="n">
-        <v>2242.828302297192</v>
+        <v>2242.828302297191</v>
       </c>
       <c r="U21" t="n">
-        <v>2014.760455431608</v>
+        <v>2014.760455431606</v>
       </c>
       <c r="V21" t="n">
-        <v>1779.608347199865</v>
+        <v>1779.608347199864</v>
       </c>
       <c r="W21" t="n">
-        <v>1525.370990471663</v>
+        <v>1525.370990471662</v>
       </c>
       <c r="X21" t="n">
-        <v>1317.519490266131</v>
+        <v>1317.519490266129</v>
       </c>
       <c r="Y21" t="n">
-        <v>1109.759191501177</v>
+        <v>1109.759191501176</v>
       </c>
     </row>
     <row r="22">
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>694.8614620694491</v>
+        <v>733.32707945985</v>
       </c>
       <c r="C22" t="n">
-        <v>582.6041674804505</v>
+        <v>615.5746966722227</v>
       </c>
       <c r="D22" t="n">
-        <v>489.1664164070231</v>
+        <v>516.6418574001666</v>
       </c>
       <c r="E22" t="n">
-        <v>397.9322111635383</v>
+        <v>419.9125639580532</v>
       </c>
       <c r="F22" t="n">
-        <v>307.7211520045363</v>
+        <v>324.2064166004225</v>
       </c>
       <c r="G22" t="n">
-        <v>196.6972037181636</v>
+        <v>207.687380115421</v>
       </c>
       <c r="H22" t="n">
-        <v>107.1589052749297</v>
+        <v>112.6539934735584</v>
       </c>
       <c r="I22" t="n">
-        <v>66.51211643218339</v>
+        <v>66.51211643218342</v>
       </c>
       <c r="J22" t="n">
-        <v>167.185727340083</v>
+        <v>111.6347488791189</v>
       </c>
       <c r="K22" t="n">
-        <v>426.7238887499234</v>
+        <v>365.7871743454833</v>
       </c>
       <c r="L22" t="n">
-        <v>798.8346656593835</v>
+        <v>732.5122153114675</v>
       </c>
       <c r="M22" t="n">
-        <v>1142.991711258932</v>
+        <v>1126.834503428504</v>
       </c>
       <c r="N22" t="n">
-        <v>1484.400087964797</v>
+        <v>1479.547831973392</v>
       </c>
       <c r="O22" t="n">
-        <v>1783.72968688521</v>
+        <v>1829.042673411293</v>
       </c>
       <c r="P22" t="n">
-        <v>2018.508269240906</v>
+        <v>2111.815416362441</v>
       </c>
       <c r="Q22" t="n">
-        <v>2151.669543854385</v>
+        <v>2239.590955032444</v>
       </c>
       <c r="R22" t="n">
-        <v>2118.517974950821</v>
+        <v>2200.944297930251</v>
       </c>
       <c r="S22" t="n">
-        <v>1983.510979116556</v>
+        <v>2060.442213897357</v>
       </c>
       <c r="T22" t="n">
-        <v>1818.42325202499</v>
+        <v>1889.859398607163</v>
       </c>
       <c r="U22" t="n">
-        <v>1585.999273489542</v>
+        <v>1651.940331873086</v>
       </c>
       <c r="V22" t="n">
-        <v>1387.993673622564</v>
+        <v>1448.439643807479</v>
       </c>
       <c r="W22" t="n">
-        <v>1155.255391924511</v>
+        <v>1210.206273910798</v>
       </c>
       <c r="X22" t="n">
-        <v>983.9447293654023</v>
+        <v>1033.40052315306</v>
       </c>
       <c r="Y22" t="n">
-        <v>819.8310385607805</v>
+        <v>863.79174414981</v>
       </c>
     </row>
     <row r="23">
@@ -5963,76 +5963,76 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1975.095080232821</v>
+        <v>2009.635634624203</v>
       </c>
       <c r="C23" t="n">
-        <v>1662.811451631318</v>
+        <v>1691.85691782407</v>
       </c>
       <c r="D23" t="n">
-        <v>1361.224641363476</v>
+        <v>1384.7750193576</v>
       </c>
       <c r="E23" t="n">
-        <v>1032.115277104141</v>
+        <v>1050.170566899635</v>
       </c>
       <c r="F23" t="n">
-        <v>677.8082606534417</v>
+        <v>690.3684622503074</v>
       </c>
       <c r="G23" t="n">
-        <v>319.4146988373465</v>
+        <v>326.4798122355834</v>
       </c>
       <c r="H23" t="n">
-        <v>78.50998678502199</v>
+        <v>80.0800119846302</v>
       </c>
       <c r="I23" t="n">
-        <v>78.50998678502199</v>
+        <v>80.0800119846302</v>
       </c>
       <c r="J23" t="n">
-        <v>267.3891177440474</v>
+        <v>268.9591429436556</v>
       </c>
       <c r="K23" t="n">
-        <v>601.2084914338939</v>
+        <v>602.778516633502</v>
       </c>
       <c r="L23" t="n">
-        <v>1052.242704682303</v>
+        <v>1467.297332286857</v>
       </c>
       <c r="M23" t="n">
-        <v>1585.774609354227</v>
+        <v>2000.829236958781</v>
       </c>
       <c r="N23" t="n">
-        <v>2132.55342641301</v>
+        <v>2547.608054017563</v>
       </c>
       <c r="O23" t="n">
-        <v>2635.525897292347</v>
+        <v>3236.863548887595</v>
       </c>
       <c r="P23" t="n">
-        <v>3348.880984739292</v>
+        <v>3631.637915244773</v>
       </c>
       <c r="Q23" t="n">
-        <v>3807.35918724828</v>
+        <v>3879.924277000455</v>
       </c>
       <c r="R23" t="n">
-        <v>3925.4993392511</v>
+        <v>4004.00059923151</v>
       </c>
       <c r="S23" t="n">
-        <v>3871.887559117103</v>
+        <v>3944.893730898885</v>
       </c>
       <c r="T23" t="n">
-        <v>3722.588699840234</v>
+        <v>3790.099783423386</v>
       </c>
       <c r="U23" t="n">
-        <v>3525.737111452978</v>
+        <v>3587.753106837502</v>
       </c>
       <c r="V23" t="n">
-        <v>3251.353112448316</v>
+        <v>3307.874019634211</v>
       </c>
       <c r="W23" t="n">
-        <v>2955.26334551711</v>
+        <v>3006.289164504377</v>
       </c>
       <c r="X23" t="n">
-        <v>2638.476475594938</v>
+        <v>2684.007206383576</v>
       </c>
       <c r="Y23" t="n">
-        <v>2305.016031958035</v>
+        <v>2345.051674548045</v>
       </c>
     </row>
     <row r="24">
@@ -6042,76 +6042,76 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>953.5417248339472</v>
+        <v>955.1117500335555</v>
       </c>
       <c r="C24" t="n">
-        <v>779.0886955528202</v>
+        <v>780.6587207524285</v>
       </c>
       <c r="D24" t="n">
-        <v>630.1542858915691</v>
+        <v>631.7243110911772</v>
       </c>
       <c r="E24" t="n">
-        <v>470.9168308861135</v>
+        <v>472.4868560857217</v>
       </c>
       <c r="F24" t="n">
-        <v>324.3822729129986</v>
+        <v>325.9522981126067</v>
       </c>
       <c r="G24" t="n">
-        <v>188.0191727456165</v>
+        <v>189.5891979452248</v>
       </c>
       <c r="H24" t="n">
-        <v>97.51727838348404</v>
+        <v>99.08730358309228</v>
       </c>
       <c r="I24" t="n">
-        <v>78.50998678502199</v>
+        <v>80.0800119846302</v>
       </c>
       <c r="J24" t="n">
-        <v>172.1872562756396</v>
+        <v>173.7572814752475</v>
       </c>
       <c r="K24" t="n">
-        <v>410.4514552559867</v>
+        <v>412.0214804555954</v>
       </c>
       <c r="L24" t="n">
-        <v>777.1496155686522</v>
+        <v>778.7196407682607</v>
       </c>
       <c r="M24" t="n">
-        <v>1224.425940790968</v>
+        <v>1225.995965990576</v>
       </c>
       <c r="N24" t="n">
-        <v>1697.948984345423</v>
+        <v>1699.519009545031</v>
       </c>
       <c r="O24" t="n">
-        <v>2108.910263763477</v>
+        <v>2110.480288963086</v>
       </c>
       <c r="P24" t="n">
-        <v>2419.40985523958</v>
+        <v>2420.979880439188</v>
       </c>
       <c r="Q24" t="n">
-        <v>2577.05141288618</v>
+        <v>2578.621438085788</v>
       </c>
       <c r="R24" t="n">
-        <v>2576.907059478695</v>
+        <v>2578.477084678304</v>
       </c>
       <c r="S24" t="n">
-        <v>2447.469172972175</v>
+        <v>2449.039198171783</v>
       </c>
       <c r="T24" t="n">
-        <v>2254.826172650031</v>
+        <v>2256.396197849639</v>
       </c>
       <c r="U24" t="n">
-        <v>2026.758325784446</v>
+        <v>2028.328350984054</v>
       </c>
       <c r="V24" t="n">
-        <v>1791.606217552704</v>
+        <v>1793.176242752312</v>
       </c>
       <c r="W24" t="n">
-        <v>1537.368860824502</v>
+        <v>1538.93888602411</v>
       </c>
       <c r="X24" t="n">
-        <v>1329.517360618969</v>
+        <v>1331.087385818577</v>
       </c>
       <c r="Y24" t="n">
-        <v>1121.757061854015</v>
+        <v>1123.327087053623</v>
       </c>
     </row>
     <row r="25">
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>706.8593324222877</v>
+        <v>746.8949750122968</v>
       </c>
       <c r="C25" t="n">
-        <v>594.6020378332892</v>
+        <v>629.1425922246694</v>
       </c>
       <c r="D25" t="n">
-        <v>501.1642867598617</v>
+        <v>530.2097529526134</v>
       </c>
       <c r="E25" t="n">
-        <v>409.930081516377</v>
+        <v>433.4804595104999</v>
       </c>
       <c r="F25" t="n">
-        <v>319.7190223573749</v>
+        <v>337.7743121528692</v>
       </c>
       <c r="G25" t="n">
-        <v>208.6950740710022</v>
+        <v>221.2552756678678</v>
       </c>
       <c r="H25" t="n">
-        <v>119.1567756277683</v>
+        <v>126.2218890260052</v>
       </c>
       <c r="I25" t="n">
-        <v>78.50998678502199</v>
+        <v>80.0800119846302</v>
       </c>
       <c r="J25" t="n">
-        <v>123.6326192319576</v>
+        <v>175.3678869490538</v>
       </c>
       <c r="K25" t="n">
-        <v>327.619802180834</v>
+        <v>429.5203124154182</v>
       </c>
       <c r="L25" t="n">
-        <v>644.17960062933</v>
+        <v>796.2453533814023</v>
       </c>
       <c r="M25" t="n">
-        <v>1043.887624689843</v>
+        <v>1190.567641498439</v>
       </c>
       <c r="N25" t="n">
-        <v>1440.846979856672</v>
+        <v>1543.280970043327</v>
       </c>
       <c r="O25" t="n">
-        <v>1795.727557238049</v>
+        <v>1892.775811481228</v>
       </c>
       <c r="P25" t="n">
-        <v>2083.886036132673</v>
+        <v>2175.548554432376</v>
       </c>
       <c r="Q25" t="n">
-        <v>2163.667414207223</v>
+        <v>2253.15885058489</v>
       </c>
       <c r="R25" t="n">
-        <v>2130.51584530366</v>
+        <v>2214.512193482698</v>
       </c>
       <c r="S25" t="n">
-        <v>1995.508849469394</v>
+        <v>2074.010109449804</v>
       </c>
       <c r="T25" t="n">
-        <v>1830.421122377829</v>
+        <v>1903.42729415961</v>
       </c>
       <c r="U25" t="n">
-        <v>1597.997143842381</v>
+        <v>1665.508227425533</v>
       </c>
       <c r="V25" t="n">
-        <v>1399.991543975402</v>
+        <v>1462.007539359926</v>
       </c>
       <c r="W25" t="n">
-        <v>1167.25326227735</v>
+        <v>1223.774169463245</v>
       </c>
       <c r="X25" t="n">
-        <v>995.9425997182409</v>
+        <v>1046.968418705507</v>
       </c>
       <c r="Y25" t="n">
-        <v>831.8289089136191</v>
+        <v>877.3596397022568</v>
       </c>
     </row>
     <row r="26">
@@ -6203,73 +6203,73 @@
         <v>2033.1075426895</v>
       </c>
       <c r="C26" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D26" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E26" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F26" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G26" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I26" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J26" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K26" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L26" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M26" t="n">
-        <v>1755.817188486247</v>
+        <v>2033.429937623798</v>
       </c>
       <c r="N26" t="n">
-        <v>2302.596005545029</v>
+        <v>2787.236323611205</v>
       </c>
       <c r="O26" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P26" t="n">
-        <v>3474.791320094415</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q26" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R26" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834457</v>
       </c>
       <c r="S26" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T26" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U26" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V26" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W26" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X26" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y26" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="27">
@@ -6300,28 +6300,28 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I27" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J27" t="n">
         <v>174.8241863873064</v>
       </c>
       <c r="K27" t="n">
-        <v>413.0883853676535</v>
+        <v>413.0883853676542</v>
       </c>
       <c r="L27" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M27" t="n">
         <v>1227.062870902635</v>
       </c>
       <c r="N27" t="n">
-        <v>1700.585914457089</v>
+        <v>1700.58591445709</v>
       </c>
       <c r="O27" t="n">
         <v>2111.547193875144</v>
       </c>
       <c r="P27" t="n">
-        <v>2422.046785351246</v>
+        <v>2422.046785351247</v>
       </c>
       <c r="Q27" t="n">
         <v>2579.688342997847</v>
@@ -6358,34 +6358,34 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697995</v>
       </c>
       <c r="C28" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899659</v>
       </c>
       <c r="D28" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257035</v>
       </c>
       <c r="E28" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913838</v>
       </c>
       <c r="F28" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415468</v>
       </c>
       <c r="G28" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643391</v>
       </c>
       <c r="H28" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I28" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J28" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K28" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L28" t="n">
         <v>786.3326864982168</v>
@@ -6418,7 +6418,7 @@
         <v>1711.385138644068</v>
       </c>
       <c r="V28" t="n">
-        <v>1504.150283386255</v>
+        <v>1504.150283386254</v>
       </c>
       <c r="W28" t="n">
         <v>1262.182746297367</v>
@@ -6427,7 +6427,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y28" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519659</v>
       </c>
     </row>
     <row r="29">
@@ -6437,76 +6437,76 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C29" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D29" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E29" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F29" t="n">
-        <v>698.9037015467798</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G29" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I29" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J29" t="n">
-        <v>270.0260478557146</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K29" t="n">
-        <v>603.845421545561</v>
+        <v>924.7493799910139</v>
       </c>
       <c r="L29" t="n">
-        <v>1054.87963479397</v>
+        <v>1706.925601880499</v>
       </c>
       <c r="M29" t="n">
-        <v>2033.429937623798</v>
+        <v>2240.457506552423</v>
       </c>
       <c r="N29" t="n">
-        <v>2852.295579285459</v>
+        <v>2787.236323611206</v>
       </c>
       <c r="O29" t="n">
-        <v>3355.268050164796</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P29" t="n">
-        <v>3750.042416521974</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q29" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R29" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S29" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T29" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U29" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V29" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W29" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X29" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y29" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="30">
@@ -6537,10 +6537,10 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I30" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J30" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K30" t="n">
         <v>413.0883853676542</v>
@@ -6595,49 +6595,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>774.1010502698001</v>
+        <v>774.1010502697991</v>
       </c>
       <c r="C31" t="n">
-        <v>652.6145002899665</v>
+        <v>652.6145002899655</v>
       </c>
       <c r="D31" t="n">
-        <v>549.9474938257041</v>
+        <v>549.9474938257031</v>
       </c>
       <c r="E31" t="n">
-        <v>449.4840331913842</v>
+        <v>449.4840331913833</v>
       </c>
       <c r="F31" t="n">
-        <v>350.0437186415472</v>
+        <v>350.0437186415462</v>
       </c>
       <c r="G31" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643385</v>
       </c>
       <c r="H31" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I31" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J31" t="n">
-        <v>172.774934596031</v>
+        <v>172.7749345960312</v>
       </c>
       <c r="K31" t="n">
-        <v>423.2675027973139</v>
+        <v>423.2675027973142</v>
       </c>
       <c r="L31" t="n">
-        <v>786.3326864982166</v>
+        <v>786.3326864982168</v>
       </c>
       <c r="M31" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N31" t="n">
-        <v>1564.908879308443</v>
+        <v>1564.908879308444</v>
       </c>
       <c r="O31" t="n">
-        <v>1910.743863481263</v>
+        <v>1910.743863481264</v>
       </c>
       <c r="P31" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q31" t="n">
         <v>2313.972430572251</v>
@@ -6652,19 +6652,19 @@
         <v>1953.038372570351</v>
       </c>
       <c r="U31" t="n">
-        <v>1711.385138644069</v>
+        <v>1711.385138644068</v>
       </c>
       <c r="V31" t="n">
         <v>1504.150283386255</v>
       </c>
       <c r="W31" t="n">
-        <v>1262.182746297368</v>
+        <v>1262.182746297367</v>
       </c>
       <c r="X31" t="n">
-        <v>1081.642828347423</v>
+        <v>1081.642828347422</v>
       </c>
       <c r="Y31" t="n">
-        <v>908.2998821519666</v>
+        <v>908.2998821519654</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C32" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.594658697161</v>
       </c>
       <c r="D32" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E32" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F32" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G32" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I32" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J32" t="n">
         <v>270.0260478557146</v>
       </c>
       <c r="K32" t="n">
-        <v>603.845421545561</v>
+        <v>603.8454215455611</v>
       </c>
       <c r="L32" t="n">
         <v>1054.87963479397</v>
       </c>
       <c r="M32" t="n">
-        <v>2033.429937623798</v>
+        <v>1653.273486348999</v>
       </c>
       <c r="N32" t="n">
-        <v>2852.295579285459</v>
+        <v>2200.052303407781</v>
       </c>
       <c r="O32" t="n">
-        <v>3355.268050164796</v>
+        <v>3080.016953737236</v>
       </c>
       <c r="P32" t="n">
-        <v>3750.042416521974</v>
+        <v>3474.791320094414</v>
       </c>
       <c r="Q32" t="n">
-        <v>3998.328778277656</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R32" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S32" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T32" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U32" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V32" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W32" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X32" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833286</v>
       </c>
       <c r="Y32" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="33">
@@ -6753,16 +6753,16 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>956.1786549456143</v>
+        <v>956.1786549456142</v>
       </c>
       <c r="C33" t="n">
-        <v>781.7256256644873</v>
+        <v>781.7256256644872</v>
       </c>
       <c r="D33" t="n">
         <v>632.7912160032361</v>
       </c>
       <c r="E33" t="n">
-        <v>473.5537609977806</v>
+        <v>473.5537609977805</v>
       </c>
       <c r="F33" t="n">
         <v>327.0192030246656</v>
@@ -6774,16 +6774,16 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I33" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J33" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873066</v>
       </c>
       <c r="K33" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676537</v>
       </c>
       <c r="L33" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803191</v>
       </c>
       <c r="M33" t="n">
         <v>1227.062870902635</v>
@@ -6841,28 +6841,28 @@
         <v>549.9474938257039</v>
       </c>
       <c r="E34" t="n">
-        <v>449.4840331913841</v>
+        <v>449.484033191384</v>
       </c>
       <c r="F34" t="n">
-        <v>350.0437186415471</v>
+        <v>350.043718641547</v>
       </c>
       <c r="G34" t="n">
-        <v>229.7905149643394</v>
+        <v>229.7905149643393</v>
       </c>
       <c r="H34" t="n">
-        <v>131.0229611302705</v>
+        <v>131.0229611302704</v>
       </c>
       <c r="I34" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J34" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K34" t="n">
-        <v>423.2675027973142</v>
+        <v>423.2675027973143</v>
       </c>
       <c r="L34" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982167</v>
       </c>
       <c r="M34" t="n">
         <v>1176.995117350172</v>
@@ -6874,7 +6874,7 @@
         <v>1910.743863481264</v>
       </c>
       <c r="P34" t="n">
-        <v>2189.856749167329</v>
+        <v>2189.85674916733</v>
       </c>
       <c r="Q34" t="n">
         <v>2313.972430572251</v>
@@ -6886,13 +6886,13 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T34" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U34" t="n">
         <v>1711.385138644068</v>
       </c>
       <c r="V34" t="n">
-        <v>1504.150283386254</v>
+        <v>1504.150283386255</v>
       </c>
       <c r="W34" t="n">
         <v>1262.182746297367</v>
@@ -6901,7 +6901,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y34" t="n">
-        <v>908.2998821519662</v>
+        <v>908.2998821519664</v>
       </c>
     </row>
     <row r="35">
@@ -6917,49 +6917,49 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D35" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E35" t="n">
         <v>1062.439973388314</v>
       </c>
       <c r="F35" t="n">
-        <v>698.9037015467795</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G35" t="n">
         <v>331.2808843398487</v>
       </c>
       <c r="H35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I35" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J35" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K35" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L35" t="n">
-        <v>1222.285283814323</v>
+        <v>1054.879634793969</v>
       </c>
       <c r="M35" t="n">
-        <v>1755.817188486247</v>
+        <v>1588.411539465894</v>
       </c>
       <c r="N35" t="n">
-        <v>2302.596005545029</v>
+        <v>2135.190356524676</v>
       </c>
       <c r="O35" t="n">
-        <v>2805.568476424366</v>
+        <v>3015.155006854131</v>
       </c>
       <c r="P35" t="n">
-        <v>3474.791320094415</v>
+        <v>3728.510094301076</v>
       </c>
       <c r="Q35" t="n">
-        <v>3933.269522603403</v>
+        <v>3976.796456056758</v>
       </c>
       <c r="R35" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S35" t="n">
         <v>3994.504809309627</v>
@@ -6971,16 +6971,16 @@
         <v>3629.895850863832</v>
       </c>
       <c r="V35" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W35" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X35" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y35" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="36">
@@ -7011,7 +7011,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I36" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J36" t="n">
         <v>174.8241863873064</v>
@@ -7020,7 +7020,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L36" t="n">
-        <v>779.7865456803195</v>
+        <v>779.7865456803188</v>
       </c>
       <c r="M36" t="n">
         <v>1227.062870902635</v>
@@ -7069,34 +7069,34 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502698001</v>
       </c>
       <c r="C37" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899665</v>
       </c>
       <c r="D37" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257041</v>
       </c>
       <c r="E37" t="n">
-        <v>449.4840331913841</v>
+        <v>449.4840331913842</v>
       </c>
       <c r="F37" t="n">
-        <v>350.0437186415471</v>
+        <v>350.0437186415472</v>
       </c>
       <c r="G37" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H37" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I37" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J37" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K37" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L37" t="n">
         <v>786.3326864982171</v>
@@ -7138,7 +7138,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y37" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
     <row r="38">
@@ -7154,70 +7154,70 @@
         <v>1711.594658697162</v>
       </c>
       <c r="D38" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E38" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388313</v>
       </c>
       <c r="F38" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467793</v>
       </c>
       <c r="G38" t="n">
-        <v>331.2808843398487</v>
+        <v>331.2808843398486</v>
       </c>
       <c r="H38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I38" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J38" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K38" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L38" t="n">
-        <v>1222.285283814323</v>
+        <v>1273.952146712635</v>
       </c>
       <c r="M38" t="n">
-        <v>2200.835586644151</v>
+        <v>1807.484051384559</v>
       </c>
       <c r="N38" t="n">
         <v>2787.236323611206</v>
       </c>
       <c r="O38" t="n">
-        <v>3290.208794490543</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P38" t="n">
-        <v>3684.983160847721</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q38" t="n">
-        <v>3933.269522603403</v>
+        <v>3933.269522603402</v>
       </c>
       <c r="R38" t="n">
-        <v>4057.345844834459</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S38" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T38" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U38" t="n">
         <v>3629.895850863832</v>
       </c>
       <c r="V38" t="n">
-        <v>3346.282596468335</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W38" t="n">
-        <v>3040.963574146294</v>
+        <v>3040.963574146293</v>
       </c>
       <c r="X38" t="n">
         <v>2714.947448833287</v>
       </c>
       <c r="Y38" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805548</v>
       </c>
     </row>
     <row r="39">
@@ -7248,7 +7248,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I39" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J39" t="n">
         <v>174.8241863873064</v>
@@ -7257,7 +7257,7 @@
         <v>413.0883853676535</v>
       </c>
       <c r="L39" t="n">
-        <v>779.7865456803188</v>
+        <v>779.7865456803195</v>
       </c>
       <c r="M39" t="n">
         <v>1227.062870902635</v>
@@ -7306,13 +7306,13 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>774.1010502698</v>
+        <v>774.1010502697999</v>
       </c>
       <c r="C40" t="n">
-        <v>652.6145002899664</v>
+        <v>652.6145002899663</v>
       </c>
       <c r="D40" t="n">
-        <v>549.947493825704</v>
+        <v>549.9474938257039</v>
       </c>
       <c r="E40" t="n">
         <v>449.4840331913841</v>
@@ -7321,34 +7321,34 @@
         <v>350.0437186415471</v>
       </c>
       <c r="G40" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643394</v>
       </c>
       <c r="H40" t="n">
         <v>131.0229611302705</v>
       </c>
       <c r="I40" t="n">
-        <v>81.14691689668918</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J40" t="n">
-        <v>172.7749345960313</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K40" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L40" t="n">
-        <v>786.332686498217</v>
+        <v>786.3326864982171</v>
       </c>
       <c r="M40" t="n">
         <v>1176.995117350173</v>
       </c>
       <c r="N40" t="n">
-        <v>1564.908879308444</v>
+        <v>1564.908879308443</v>
       </c>
       <c r="O40" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P40" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q40" t="n">
         <v>2313.972430572251</v>
@@ -7360,7 +7360,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T40" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U40" t="n">
         <v>1711.385138644068</v>
@@ -7375,7 +7375,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y40" t="n">
-        <v>908.2998821519664</v>
+        <v>908.2998821519662</v>
       </c>
     </row>
     <row r="41">
@@ -7385,76 +7385,76 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2033.1075426895</v>
+        <v>2033.107542689499</v>
       </c>
       <c r="C41" t="n">
-        <v>1711.594658697162</v>
+        <v>1711.59465869716</v>
       </c>
       <c r="D41" t="n">
-        <v>1400.778593038485</v>
+        <v>1400.778593038483</v>
       </c>
       <c r="E41" t="n">
-        <v>1062.439973388314</v>
+        <v>1062.439973388312</v>
       </c>
       <c r="F41" t="n">
-        <v>698.9037015467796</v>
+        <v>698.9037015467785</v>
       </c>
       <c r="G41" t="n">
         <v>331.2808843398486</v>
       </c>
       <c r="H41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="I41" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J41" t="n">
-        <v>270.0260478557145</v>
+        <v>437.4316968760676</v>
       </c>
       <c r="K41" t="n">
-        <v>603.8454215455608</v>
+        <v>1092.155029011367</v>
       </c>
       <c r="L41" t="n">
-        <v>1054.879634793969</v>
+        <v>1543.189242259775</v>
       </c>
       <c r="M41" t="n">
-        <v>1588.411539465894</v>
+        <v>2076.7211469317</v>
       </c>
       <c r="N41" t="n">
-        <v>2156.722678745573</v>
+        <v>2623.499963990482</v>
       </c>
       <c r="O41" t="n">
-        <v>3036.687329075028</v>
+        <v>3145.076209411489</v>
       </c>
       <c r="P41" t="n">
-        <v>3750.042416521973</v>
+        <v>3539.850575768667</v>
       </c>
       <c r="Q41" t="n">
-        <v>3998.328778277656</v>
+        <v>3998.328778277655</v>
       </c>
       <c r="R41" t="n">
         <v>4057.345844834458</v>
       </c>
       <c r="S41" t="n">
-        <v>3994.504809309627</v>
+        <v>3994.504809309626</v>
       </c>
       <c r="T41" t="n">
-        <v>3835.976694641922</v>
+        <v>3835.976694641921</v>
       </c>
       <c r="U41" t="n">
-        <v>3629.895850863832</v>
+        <v>3629.895850863831</v>
       </c>
       <c r="V41" t="n">
-        <v>3346.282596468334</v>
+        <v>3346.282596468333</v>
       </c>
       <c r="W41" t="n">
-        <v>3040.963574146293</v>
+        <v>3040.963574146292</v>
       </c>
       <c r="X41" t="n">
-        <v>2714.947448833287</v>
+        <v>2714.947448833285</v>
       </c>
       <c r="Y41" t="n">
-        <v>2372.257749805549</v>
+        <v>2372.257749805547</v>
       </c>
     </row>
     <row r="42">
@@ -7485,7 +7485,7 @@
         <v>100.1542084951512</v>
       </c>
       <c r="I42" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J42" t="n">
         <v>174.8241863873064</v>
@@ -7500,7 +7500,7 @@
         <v>1227.062870902635</v>
       </c>
       <c r="N42" t="n">
-        <v>1700.58591445709</v>
+        <v>1700.585914457089</v>
       </c>
       <c r="O42" t="n">
         <v>2111.547193875144</v>
@@ -7564,13 +7564,13 @@
         <v>131.0229611302705</v>
       </c>
       <c r="I43" t="n">
-        <v>81.14691689668916</v>
+        <v>81.14691689668915</v>
       </c>
       <c r="J43" t="n">
-        <v>172.7749345960312</v>
+        <v>172.7749345960314</v>
       </c>
       <c r="K43" t="n">
-        <v>423.2675027973143</v>
+        <v>423.2675027973144</v>
       </c>
       <c r="L43" t="n">
         <v>786.3326864982171</v>
@@ -7582,22 +7582,22 @@
         <v>1564.908879308444</v>
       </c>
       <c r="O43" t="n">
-        <v>1910.743863481264</v>
+        <v>1910.743863481263</v>
       </c>
       <c r="P43" t="n">
-        <v>2189.85674916733</v>
+        <v>2189.856749167329</v>
       </c>
       <c r="Q43" t="n">
-        <v>2313.972430572252</v>
+        <v>2313.972430572251</v>
       </c>
       <c r="R43" t="n">
-        <v>2271.591606277853</v>
+        <v>2271.591606277852</v>
       </c>
       <c r="S43" t="n">
         <v>2127.355355052752</v>
       </c>
       <c r="T43" t="n">
-        <v>1953.038372570352</v>
+        <v>1953.038372570351</v>
       </c>
       <c r="U43" t="n">
         <v>1711.385138644068</v>
@@ -7628,16 +7628,16 @@
         <v>1711.594658697161</v>
       </c>
       <c r="D44" t="n">
-        <v>1400.778593038483</v>
+        <v>1400.778593038484</v>
       </c>
       <c r="E44" t="n">
         <v>1062.439973388313</v>
       </c>
       <c r="F44" t="n">
-        <v>698.9037015467784</v>
+        <v>698.9037015467788</v>
       </c>
       <c r="G44" t="n">
-        <v>331.2808843398486</v>
+        <v>331.2808843398487</v>
       </c>
       <c r="H44" t="n">
         <v>81.14691689668915</v>
@@ -7646,31 +7646,31 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J44" t="n">
-        <v>437.4316968760676</v>
+        <v>270.0260478557145</v>
       </c>
       <c r="K44" t="n">
-        <v>771.251070565914</v>
+        <v>603.8454215455608</v>
       </c>
       <c r="L44" t="n">
-        <v>1222.285283814323</v>
+        <v>1329.933422430381</v>
       </c>
       <c r="M44" t="n">
-        <v>1755.817188486247</v>
+        <v>1863.465327102306</v>
       </c>
       <c r="N44" t="n">
-        <v>2302.596005545029</v>
+        <v>2410.244144161088</v>
       </c>
       <c r="O44" t="n">
-        <v>2805.568476424366</v>
+        <v>3290.208794490542</v>
       </c>
       <c r="P44" t="n">
-        <v>3474.791320094414</v>
+        <v>3684.98316084772</v>
       </c>
       <c r="Q44" t="n">
         <v>3933.269522603402</v>
       </c>
       <c r="R44" t="n">
-        <v>4057.345844834457</v>
+        <v>4057.345844834458</v>
       </c>
       <c r="S44" t="n">
         <v>3994.504809309626</v>
@@ -7682,7 +7682,7 @@
         <v>3629.895850863831</v>
       </c>
       <c r="V44" t="n">
-        <v>3346.282596468333</v>
+        <v>3346.282596468334</v>
       </c>
       <c r="W44" t="n">
         <v>3040.963574146293</v>
@@ -7725,10 +7725,10 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J45" t="n">
-        <v>174.8241863873071</v>
+        <v>174.8241863873064</v>
       </c>
       <c r="K45" t="n">
-        <v>413.0883853676542</v>
+        <v>413.0883853676535</v>
       </c>
       <c r="L45" t="n">
         <v>779.7865456803195</v>
@@ -7780,22 +7780,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>774.1010502697998</v>
+        <v>774.1010502698002</v>
       </c>
       <c r="C46" t="n">
-        <v>652.6145002899661</v>
+        <v>652.6145002899666</v>
       </c>
       <c r="D46" t="n">
-        <v>549.9474938257038</v>
+        <v>549.9474938257042</v>
       </c>
       <c r="E46" t="n">
-        <v>449.484033191384</v>
+        <v>449.4840331913844</v>
       </c>
       <c r="F46" t="n">
-        <v>350.043718641547</v>
+        <v>350.0437186415473</v>
       </c>
       <c r="G46" t="n">
-        <v>229.7905149643393</v>
+        <v>229.7905149643395</v>
       </c>
       <c r="H46" t="n">
         <v>131.0229611302705</v>
@@ -7804,16 +7804,16 @@
         <v>81.14691689668915</v>
       </c>
       <c r="J46" t="n">
-        <v>172.7749345960314</v>
+        <v>172.7749345960313</v>
       </c>
       <c r="K46" t="n">
         <v>423.2675027973143</v>
       </c>
       <c r="L46" t="n">
-        <v>786.3326864982171</v>
+        <v>786.332686498217</v>
       </c>
       <c r="M46" t="n">
-        <v>1176.995117350172</v>
+        <v>1176.995117350173</v>
       </c>
       <c r="N46" t="n">
         <v>1564.908879308444</v>
@@ -7834,7 +7834,7 @@
         <v>2127.355355052752</v>
       </c>
       <c r="T46" t="n">
-        <v>1953.038372570351</v>
+        <v>1953.038372570352</v>
       </c>
       <c r="U46" t="n">
         <v>1711.385138644068</v>
@@ -7849,7 +7849,7 @@
         <v>1081.642828347423</v>
       </c>
       <c r="Y46" t="n">
-        <v>908.2998821519661</v>
+        <v>908.2998821519666</v>
       </c>
     </row>
   </sheetData>
@@ -8453,25 +8453,25 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K8" t="n">
-        <v>202.1809638361346</v>
+        <v>204.9758093342898</v>
       </c>
       <c r="L8" t="n">
-        <v>213.5488567752802</v>
+        <v>217.0161097528861</v>
       </c>
       <c r="M8" t="n">
-        <v>205.6249188705004</v>
+        <v>209.4829058762133</v>
       </c>
       <c r="N8" t="n">
-        <v>204.2917325281876</v>
+        <v>208.2121457970541</v>
       </c>
       <c r="O8" t="n">
-        <v>206.3768508508745</v>
+        <v>210.0787859308333</v>
       </c>
       <c r="P8" t="n">
-        <v>210.9873633211545</v>
+        <v>214.1468792646042</v>
       </c>
       <c r="Q8" t="n">
-        <v>207.1020630664798</v>
+        <v>209.4747279587406</v>
       </c>
       <c r="R8" t="n">
         <v>65.71641987298243</v>
@@ -8529,28 +8529,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>119.7207117878867</v>
+        <v>120.8313713882156</v>
       </c>
       <c r="K9" t="n">
-        <v>125.6774978810001</v>
+        <v>127.5757920412206</v>
       </c>
       <c r="L9" t="n">
-        <v>122.1984598562864</v>
+        <v>124.7509506187525</v>
       </c>
       <c r="M9" t="n">
-        <v>123.047446830095</v>
+        <v>126.0260831566815</v>
       </c>
       <c r="N9" t="n">
-        <v>111.7499598249992</v>
+        <v>114.8074317919415</v>
       </c>
       <c r="O9" t="n">
-        <v>124.673618687554</v>
+        <v>127.4706082116727</v>
       </c>
       <c r="P9" t="n">
-        <v>119.5899201578276</v>
+        <v>121.8347508378851</v>
       </c>
       <c r="Q9" t="n">
-        <v>130.3661252938572</v>
+        <v>131.8667351544937</v>
       </c>
       <c r="R9" t="n">
         <v>45.52166981132082</v>
@@ -8614,19 +8614,19 @@
         <v>106.7437663446525</v>
       </c>
       <c r="L10" t="n">
-        <v>125.4955336943436</v>
+        <v>126.9607951918619</v>
       </c>
       <c r="M10" t="n">
-        <v>129.0262495446562</v>
+        <v>130.5711623489676</v>
       </c>
       <c r="N10" t="n">
-        <v>118.0213988638391</v>
+        <v>119.5295770947139</v>
       </c>
       <c r="O10" t="n">
-        <v>129.5301358016631</v>
+        <v>130.9231825035963</v>
       </c>
       <c r="P10" t="n">
-        <v>130.0899244982092</v>
+        <v>131.2819166079673</v>
       </c>
       <c r="Q10" t="n">
         <v>65.34295837775146</v>
@@ -9474,7 +9474,7 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.147526518252562e-12</v>
       </c>
       <c r="J21" t="n">
         <v>0</v>
@@ -9501,7 +9501,7 @@
         <v>0</v>
       </c>
       <c r="R21" t="n">
-        <v>9.094947017729282e-13</v>
+        <v>0</v>
       </c>
       <c r="S21" t="n">
         <v>0</v>
@@ -9641,7 +9641,7 @@
         <v>0</v>
       </c>
       <c r="L23" t="n">
-        <v>0</v>
+        <v>417.6612145504504</v>
       </c>
       <c r="M23" t="n">
         <v>0</v>
@@ -9650,16 +9650,16 @@
         <v>0</v>
       </c>
       <c r="O23" t="n">
-        <v>0</v>
+        <v>188.1646706976721</v>
       </c>
       <c r="P23" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q23" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R23" t="n">
-        <v>59.72028832930995</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -9872,7 +9872,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K26" t="n">
         <v>0</v>
@@ -9881,19 +9881,19 @@
         <v>0</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N26" t="n">
-        <v>0</v>
+        <v>209.1187564935608</v>
       </c>
       <c r="O26" t="n">
         <v>0</v>
       </c>
       <c r="P26" t="n">
-        <v>277.220684154416</v>
+        <v>0</v>
       </c>
       <c r="Q26" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R26" t="n">
         <v>65.71641987298243</v>
@@ -10112,16 +10112,16 @@
         <v>0</v>
       </c>
       <c r="K29" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L29" t="n">
-        <v>0</v>
+        <v>334.4868774152288</v>
       </c>
       <c r="M29" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N29" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O29" t="n">
         <v>0</v>
@@ -10133,7 +10133,7 @@
         <v>0</v>
       </c>
       <c r="R29" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -10355,22 +10355,22 @@
         <v>0</v>
       </c>
       <c r="M32" t="n">
-        <v>449.5135334928325</v>
+        <v>65.51711806374215</v>
       </c>
       <c r="N32" t="n">
-        <v>274.8351763665443</v>
+        <v>0</v>
       </c>
       <c r="O32" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P32" t="n">
         <v>0</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>65.71641987298243</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10583,7 +10583,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K35" t="n">
         <v>0</v>
@@ -10598,16 +10598,16 @@
         <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P35" t="n">
-        <v>277.220684154416</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q35" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>65.71641987298243</v>
+        <v>21.74982042514829</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -10820,19 +10820,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K38" t="n">
         <v>0</v>
       </c>
       <c r="L38" t="n">
-        <v>0</v>
+        <v>221.2853655744092</v>
       </c>
       <c r="M38" t="n">
-        <v>449.5135334928325</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>40.02214132148799</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O38" t="n">
         <v>0</v>
@@ -11057,10 +11057,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K41" t="n">
-        <v>0</v>
+        <v>324.1454125711647</v>
       </c>
       <c r="L41" t="n">
         <v>0</v>
@@ -11069,16 +11069,16 @@
         <v>0</v>
       </c>
       <c r="N41" t="n">
-        <v>21.74982042514841</v>
+        <v>0</v>
       </c>
       <c r="O41" t="n">
-        <v>380.8001812627454</v>
+        <v>18.79169145623314</v>
       </c>
       <c r="P41" t="n">
-        <v>321.7987081714826</v>
+        <v>0</v>
       </c>
       <c r="Q41" t="n">
-        <v>0</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -11294,13 +11294,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>169.0966151720738</v>
+        <v>0</v>
       </c>
       <c r="K44" t="n">
         <v>0</v>
       </c>
       <c r="L44" t="n">
-        <v>0</v>
+        <v>277.8321087236482</v>
       </c>
       <c r="M44" t="n">
         <v>0</v>
@@ -11309,13 +11309,13 @@
         <v>0</v>
       </c>
       <c r="O44" t="n">
-        <v>0</v>
+        <v>380.8001812627454</v>
       </c>
       <c r="P44" t="n">
-        <v>277.2206841544146</v>
+        <v>0</v>
       </c>
       <c r="Q44" t="n">
-        <v>212.3149906599047</v>
+        <v>0</v>
       </c>
       <c r="R44" t="n">
         <v>65.71641987298243</v>
@@ -23033,7 +23033,7 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.16194852731947</v>
+        <v>15.18391993538059</v>
       </c>
       <c r="H8" t="n">
         <v>0</v>
@@ -23267,13 +23267,13 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>365.2991159687855</v>
       </c>
       <c r="G11" t="n">
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>168.770932723815</v>
+        <v>253.0308346143945</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -23309,13 +23309,13 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>165.7740801667933</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>212.8512819860751</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>289.608368497308</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
         <v>0</v>
@@ -23324,7 +23324,7 @@
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>0</v>
+        <v>167.1791157893265</v>
       </c>
     </row>
     <row r="12">
@@ -23422,7 +23422,7 @@
         <v>0</v>
       </c>
       <c r="E13" t="n">
-        <v>0</v>
+        <v>73.92207912925693</v>
       </c>
       <c r="F13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>58.20853043701124</v>
+        <v>54.77549063691217</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,13 +23461,13 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>50.78826269722047</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>101.5471918981396</v>
+        <v>0</v>
       </c>
       <c r="U13" t="n">
         <v>0</v>
@@ -23495,25 +23495,25 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>323.6959619980817</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>343.7864800994349</v>
+        <v>92.46830849389825</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>369.3447958805275</v>
       </c>
       <c r="H14" t="n">
-        <v>40.11590950624233</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>3.433039800099152</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,13 +23543,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>71.04387181534902</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
-        <v>165.7740801667933</v>
+        <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>212.8512819860751</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -23659,19 +23659,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>108.2900726737423</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>73.92207912925734</v>
       </c>
       <c r="H16" t="n">
         <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>54.7754906369122</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23719,7 +23719,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>102.2539123586292</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23729,13 +23729,13 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0</v>
+        <v>332.0618795246037</v>
       </c>
       <c r="C17" t="n">
         <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>298.5709421651637</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
         <v>0</v>
@@ -23744,7 +23744,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>326.11673372459</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -23783,10 +23783,10 @@
         <v>0</v>
       </c>
       <c r="T17" t="n">
-        <v>88.5626761476544</v>
+        <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>194.8830725033827</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -23975,16 +23975,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="n">
-        <v>0</v>
+        <v>53.99304748617392</v>
       </c>
       <c r="F20" t="n">
         <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0</v>
+        <v>360.2497635145766</v>
       </c>
       <c r="H20" t="n">
-        <v>109.4949987848276</v>
+        <v>243.9358022484436</v>
       </c>
       <c r="I20" t="n">
         <v>0</v>
@@ -24017,16 +24017,16 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>53.07566233265658</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
-        <v>147.8058706841008</v>
+        <v>0</v>
       </c>
       <c r="U20" t="n">
         <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>271.6401590146156</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
         <v>0</v>
@@ -24853,7 +24853,7 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>9.663381206337363e-13</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>1062350.902025031</v>
+        <v>1063465.713713673</v>
       </c>
     </row>
     <row r="5">
@@ -26147,7 +26147,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>908994.8750629216</v>
+        <v>916270.91124817</v>
       </c>
     </row>
     <row r="6">
@@ -26155,7 +26155,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>908994.8750629212</v>
+        <v>916270.91124817</v>
       </c>
     </row>
     <row r="7">
@@ -26163,7 +26163,7 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>939414.9929705741</v>
+        <v>932140.0061397745</v>
       </c>
     </row>
     <row r="8">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>939414.9929705741</v>
+        <v>932140.0061397746</v>
       </c>
     </row>
     <row r="9">
@@ -26179,7 +26179,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>1013916.901428534</v>
+        <v>1016391.134272393</v>
       </c>
     </row>
     <row r="10">
@@ -26314,31 +26314,31 @@
         <v>450601.9862943711</v>
       </c>
       <c r="C2" t="n">
-        <v>450601.986294371</v>
+        <v>450601.9862943711</v>
       </c>
       <c r="D2" t="n">
-        <v>450608.1500362577</v>
+        <v>450607.1881280128</v>
       </c>
       <c r="E2" t="n">
-        <v>412149.728660415</v>
+        <v>415484.578578654</v>
       </c>
       <c r="F2" t="n">
-        <v>412149.7286604151</v>
+        <v>415484.578578654</v>
       </c>
       <c r="G2" t="n">
-        <v>426092.2827014232</v>
+        <v>422757.9137373061</v>
       </c>
       <c r="H2" t="n">
-        <v>426092.2827014231</v>
+        <v>422757.913737306</v>
       </c>
       <c r="I2" t="n">
-        <v>451572.9734253563</v>
+        <v>451572.9734253558</v>
       </c>
       <c r="J2" t="n">
         <v>451572.9734253561</v>
       </c>
       <c r="K2" t="n">
-        <v>451572.9734253561</v>
+        <v>451572.9734253562</v>
       </c>
       <c r="L2" t="n">
         <v>451572.9734253561</v>
@@ -26347,13 +26347,13 @@
         <v>451572.9734253563</v>
       </c>
       <c r="N2" t="n">
+        <v>451572.9734253561</v>
+      </c>
+      <c r="O2" t="n">
         <v>451572.9734253563</v>
       </c>
-      <c r="O2" t="n">
-        <v>451572.973425356</v>
-      </c>
       <c r="P2" t="n">
-        <v>451572.9734253562</v>
+        <v>451572.9734253561</v>
       </c>
     </row>
     <row r="3">
@@ -26369,40 +26369,40 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>29992.69797750899</v>
+        <v>25312.06338852321</v>
       </c>
       <c r="E3" t="n">
-        <v>1126146.980390598</v>
+        <v>1133284.321149371</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>14374.56758615392</v>
+        <v>7276.025892760913</v>
       </c>
       <c r="H3" t="n">
-        <v>1.741016149026109e-10</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>39881.07102621492</v>
+        <v>45099.85441502753</v>
       </c>
       <c r="J3" t="n">
-        <v>31829.75348543323</v>
+        <v>33793.44926224771</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14374.56758615395</v>
+        <v>7276.025892760743</v>
       </c>
       <c r="M3" t="n">
         <v>207188.568292073</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-11</v>
       </c>
       <c r="O3" t="n">
-        <v>23205.54170872015</v>
+        <v>30304.08340211333</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26421,34 +26421,34 @@
         <v>430898.5094426759</v>
       </c>
       <c r="D4" t="n">
-        <v>421594.991239873</v>
+        <v>423023.112559951</v>
       </c>
       <c r="E4" t="n">
-        <v>48926.49196655121</v>
+        <v>52395.73565602436</v>
       </c>
       <c r="F4" t="n">
-        <v>48926.49196655121</v>
+        <v>52395.73565602436</v>
       </c>
       <c r="G4" t="n">
-        <v>63371.26544635458</v>
+        <v>59938.40278207085</v>
       </c>
       <c r="H4" t="n">
-        <v>63371.26544635459</v>
+        <v>59938.40278207089</v>
       </c>
       <c r="I4" t="n">
-        <v>82349.84337561816</v>
+        <v>81400.4919283583</v>
       </c>
       <c r="J4" t="n">
-        <v>80755.36360646601</v>
+        <v>80755.36360646599</v>
       </c>
       <c r="K4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646595</v>
       </c>
       <c r="L4" t="n">
-        <v>80755.36360646602</v>
+        <v>80755.36360646592</v>
       </c>
       <c r="M4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646597</v>
       </c>
       <c r="N4" t="n">
         <v>80755.36360646599</v>
@@ -26457,7 +26457,7 @@
         <v>80755.36360646601</v>
       </c>
       <c r="P4" t="n">
-        <v>80755.36360646598</v>
+        <v>80755.36360646597</v>
       </c>
     </row>
     <row r="5">
@@ -26473,34 +26473,34 @@
         <v>33627.6</v>
       </c>
       <c r="D5" t="n">
-        <v>34391.06348367693</v>
+        <v>34271.91803061347</v>
       </c>
       <c r="E5" t="n">
-        <v>77513.05924751889</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="F5" t="n">
-        <v>77513.05924751886</v>
+        <v>77801.6714704734</v>
       </c>
       <c r="G5" t="n">
-        <v>79023.62865051933</v>
+        <v>78566.28174644653</v>
       </c>
       <c r="H5" t="n">
-        <v>79023.62865051933</v>
+        <v>78566.28174644653</v>
       </c>
       <c r="I5" t="n">
-        <v>88142.01011867667</v>
+        <v>88877.88236630609</v>
       </c>
       <c r="J5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="K5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="L5" t="n">
         <v>89377.94167480612</v>
       </c>
       <c r="M5" t="n">
-        <v>89377.94167480612</v>
+        <v>89377.9416748061</v>
       </c>
       <c r="N5" t="n">
         <v>89377.94167480612</v>
@@ -26519,46 +26519,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-13924.12314830478</v>
+        <v>-13928.53672617284</v>
       </c>
       <c r="C6" t="n">
-        <v>-13924.12314830484</v>
+        <v>-13928.53672617289</v>
       </c>
       <c r="D6" t="n">
-        <v>-35370.60266480123</v>
+        <v>-32004.29578424461</v>
       </c>
       <c r="E6" t="n">
-        <v>-840436.8029442526</v>
+        <v>-848161.1878556092</v>
       </c>
       <c r="F6" t="n">
-        <v>285710.1774463456</v>
+        <v>285123.1332937623</v>
       </c>
       <c r="G6" t="n">
-        <v>269322.8210183954</v>
+        <v>276846.2257719912</v>
       </c>
       <c r="H6" t="n">
-        <v>283697.388604549</v>
+        <v>284122.2516647521</v>
       </c>
       <c r="I6" t="n">
-        <v>241200.0489048466</v>
+        <v>236194.7447156639</v>
       </c>
       <c r="J6" t="n">
-        <v>249609.9146586507</v>
+        <v>247646.2188818363</v>
       </c>
       <c r="K6" t="n">
+        <v>281439.6681440841</v>
+      </c>
+      <c r="L6" t="n">
+        <v>274163.6422513233</v>
+      </c>
+      <c r="M6" t="n">
+        <v>74251.0998520112</v>
+      </c>
+      <c r="N6" t="n">
         <v>281439.668144084</v>
       </c>
-      <c r="L6" t="n">
-        <v>267065.1005579301</v>
-      </c>
-      <c r="M6" t="n">
-        <v>74251.09985201119</v>
-      </c>
-      <c r="N6" t="n">
-        <v>281439.6681440843</v>
-      </c>
       <c r="O6" t="n">
-        <v>258234.1264353637</v>
+        <v>251135.5847419708</v>
       </c>
       <c r="P6" t="n">
         <v>281439.6681440841</v>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F2" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G2" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="H2" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="I2" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="J2" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K2" t="n">
         <v>46.97513661859255</v>
       </c>
       <c r="L2" t="n">
+        <v>46.97513661859256</v>
+      </c>
+      <c r="M2" t="n">
+        <v>46.97513661859255</v>
+      </c>
+      <c r="N2" t="n">
         <v>46.97513661859259</v>
-      </c>
-      <c r="M2" t="n">
-        <v>46.97513661859256</v>
-      </c>
-      <c r="N2" t="n">
-        <v>46.97513661859256</v>
       </c>
       <c r="O2" t="n">
         <v>46.97513661859259</v>
       </c>
       <c r="P2" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="3">
@@ -26741,7 +26741,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912533</v>
+        <v>29.55587296392073</v>
       </c>
       <c r="E3" t="n">
         <v>1089.776700593298</v>
@@ -26796,37 +26796,37 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="G4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="H4" t="n">
-        <v>831.4014554022924</v>
+        <v>831.4014554022926</v>
       </c>
       <c r="I4" t="n">
-        <v>981.3748348127749</v>
+        <v>1001.000149807878</v>
       </c>
       <c r="J4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="K4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="L4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="M4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="N4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="O4" t="n">
-        <v>1014.336461208615</v>
+        <v>1014.336461208614</v>
       </c>
       <c r="P4" t="n">
         <v>1014.336461208614</v>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>17.9682094826924</v>
+        <v>9.095032365950921</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,22 +26929,22 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>29.00692713590017</v>
+        <v>37.88010425264167</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.96820948269244</v>
+        <v>9.095032365950928</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
       </c>
       <c r="N2" t="n">
-        <v>0</v>
+        <v>3.552713678800501e-14</v>
       </c>
       <c r="O2" t="n">
-        <v>29.00692713590019</v>
+        <v>37.88010425264167</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26963,19 +26963,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>35.02126071912532</v>
+        <v>29.55587296392073</v>
       </c>
       <c r="E3" t="n">
-        <v>1054.755439874173</v>
+        <v>1060.220827629377</v>
       </c>
       <c r="F3" t="n">
-        <v>-2.587667540470378e-13</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="H3" t="n">
-        <v>2.273736754432321e-13</v>
+        <v>-5.28377942033166e-14</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27018,10 +27018,10 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="F4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="G4" t="n">
         <v>0</v>
@@ -27030,10 +27030,10 @@
         <v>0</v>
       </c>
       <c r="I4" t="n">
-        <v>149.9733794104825</v>
+        <v>169.5986944055849</v>
       </c>
       <c r="J4" t="n">
-        <v>32.96162639583974</v>
+        <v>13.3363114007368</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,10 +27042,10 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
-        <v>-5.684341886080801e-13</v>
+        <v>0</v>
       </c>
       <c r="O4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>17.9682094826924</v>
+        <v>9.095032365950921</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,7 +27166,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>29.00692713590017</v>
+        <v>37.88010425264167</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>831.401455402293</v>
+        <v>831.4014554022929</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27868,13 +27868,13 @@
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>338.0329468943008</v>
+        <v>338.2579615771068</v>
       </c>
       <c r="I8" t="n">
-        <v>205.0481221176458</v>
+        <v>205.8951748269223</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>1.864795794927826</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,16 +27898,16 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>141.0252816852793</v>
+        <v>142.4054431468989</v>
       </c>
       <c r="S8" t="n">
-        <v>205.8118405263978</v>
+        <v>206.3125139875907</v>
       </c>
       <c r="T8" t="n">
-        <v>222.4795457699687</v>
+        <v>222.5757256087562</v>
       </c>
       <c r="U8" t="n">
-        <v>251.3343897888113</v>
+        <v>251.3361475014561</v>
       </c>
       <c r="V8" t="n">
         <v>327.7522584701349</v>
@@ -27944,13 +27944,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
-        <v>137.2681884137393</v>
+        <v>137.2799441534392</v>
       </c>
       <c r="H9" t="n">
-        <v>111.5079271034444</v>
+        <v>111.6214628000195</v>
       </c>
       <c r="I9" t="n">
-        <v>86.80307722268739</v>
+        <v>87.20782527814359</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -27977,16 +27977,16 @@
         <v>0</v>
       </c>
       <c r="R9" t="n">
-        <v>95.48084390037957</v>
+        <v>96.21073096700859</v>
       </c>
       <c r="S9" t="n">
-        <v>170.2839726213331</v>
+        <v>170.5023303302321</v>
       </c>
       <c r="T9" t="n">
-        <v>199.8611009721718</v>
+        <v>199.9084848528042</v>
       </c>
       <c r="U9" t="n">
-        <v>225.9364262421938</v>
+        <v>225.9371996461214</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -28023,19 +28023,19 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>167.9278262653587</v>
+        <v>167.9376818826222</v>
       </c>
       <c r="H10" t="n">
-        <v>161.6656840978772</v>
+        <v>161.7533094950016</v>
       </c>
       <c r="I10" t="n">
-        <v>153.551289182031</v>
+        <v>153.8476744721001</v>
       </c>
       <c r="J10" t="n">
-        <v>88.89425643449839</v>
+        <v>89.59104857502669</v>
       </c>
       <c r="K10" t="n">
-        <v>14.93225064571201</v>
+        <v>16.07729417868766</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28053,19 +28053,19 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>80.87383288310646</v>
+        <v>81.69910643414235</v>
       </c>
       <c r="R10" t="n">
-        <v>174.4537986637794</v>
+        <v>174.8969430545539</v>
       </c>
       <c r="S10" t="n">
-        <v>222.9160118599466</v>
+        <v>223.087768389893</v>
       </c>
       <c r="T10" t="n">
-        <v>227.6757534850358</v>
+        <v>227.717863849707</v>
       </c>
       <c r="U10" t="n">
-        <v>286.3155846423218</v>
+        <v>286.3161222214453</v>
       </c>
       <c r="V10" t="n">
         <v>252.137643323828</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="C11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="D11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="E11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="H11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="I11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28138,25 +28138,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="T11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="U11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="V11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="W11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="X11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Y11" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="C13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="D13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="E13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="H13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="I13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="K13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="L13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="M13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="N13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="O13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="P13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Q13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="R13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="S13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="T13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="U13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="V13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="W13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="X13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Y13" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="C14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="D14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="E14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="H14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="I14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="T14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="U14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="V14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="W14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="X14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Y14" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="C16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="D16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="E16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="F16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="G16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="H16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="I16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="J16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="K16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="L16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="M16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="N16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="O16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="P16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Q16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="R16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="S16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="T16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="U16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="V16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="W16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="X16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
       <c r="Y16" t="n">
-        <v>38.14388997282686</v>
+        <v>41.57692977292592</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="C17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="D17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="E17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="F17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="G17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="H17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="I17" t="n">
-        <v>41.57692977292601</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="T17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="U17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="V17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="W17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="X17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Y17" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="C19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="D19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="E19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="F19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="G19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="H19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="I19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="K19" t="n">
-        <v>0</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="L19" t="n">
         <v>0</v>
       </c>
       <c r="M19" t="n">
-        <v>2.193012042461135</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="N19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="O19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="P19" t="n">
-        <v>56.11209945551926</v>
+        <v>11.41914327174007</v>
       </c>
       <c r="Q19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="R19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="S19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="T19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="U19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="V19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="W19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="X19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Y19" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
     </row>
     <row r="20">
@@ -28798,25 +28798,25 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="C20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="D20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="E20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="F20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="G20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="H20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="I20" t="n">
         <v>41.57692977292598</v>
@@ -28849,25 +28849,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="T20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="U20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="V20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="W20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="X20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Y20" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="C22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="D22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="E22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="F22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="G22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="H22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="I22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="J22" t="n">
-        <v>56.11209945551926</v>
+        <v>0</v>
       </c>
       <c r="K22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="L22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="M22" t="n">
-        <v>0</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="N22" t="n">
-        <v>0</v>
+        <v>11.41914327174038</v>
       </c>
       <c r="O22" t="n">
-        <v>0</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="P22" t="n">
-        <v>2.193012042460907</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Q22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="R22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="S22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="T22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="U22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="V22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="W22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="X22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Y22" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="C23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="D23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="E23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="F23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="G23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="H23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="I23" t="n">
-        <v>41.57692977292595</v>
+        <v>41.57692977292598</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="T23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="U23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="V23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="W23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="X23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Y23" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="C25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="D25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="E25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="F25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="G25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="H25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="I25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="J25" t="n">
-        <v>0</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="K25" t="n">
-        <v>0</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="L25" t="n">
-        <v>0</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="M25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="N25" t="n">
-        <v>56.11209945551926</v>
+        <v>11.41914327174015</v>
       </c>
       <c r="O25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="P25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Q25" t="n">
-        <v>2.193012042460381</v>
+        <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="S25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="T25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="U25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="V25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="W25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="X25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
       <c r="Y25" t="n">
-        <v>56.11209945551926</v>
+        <v>50.67196213887684</v>
       </c>
     </row>
     <row r="26">
@@ -29272,25 +29272,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I26" t="n">
         <v>41.57692977292598</v>
@@ -29323,25 +29323,25 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y26" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="O28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y28" t="n">
-        <v>46.97513661859257</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I32" t="n">
-        <v>41.57692977292598</v>
+        <v>41.57692977292595</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29797,25 +29797,25 @@
         <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y32" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y34" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="35">
@@ -29983,25 +29983,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I35" t="n">
         <v>41.57692977292598</v>
@@ -30034,25 +30034,25 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y35" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="C37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="D37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="E37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="F37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="G37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="H37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="I37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="J37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="K37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859267</v>
       </c>
       <c r="L37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="M37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="N37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="O37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="P37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Q37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="R37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="S37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="T37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="U37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="V37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="W37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="X37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
       <c r="Y37" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859255</v>
       </c>
     </row>
     <row r="38">
@@ -30220,25 +30220,25 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I38" t="n">
         <v>41.57692977292598</v>
@@ -30271,25 +30271,25 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y38" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="39">
@@ -30378,76 +30378,76 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="C40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="D40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="E40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="F40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="G40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="H40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="I40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="J40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="K40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="L40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="M40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="N40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859199</v>
       </c>
       <c r="O40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="P40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Q40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="R40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="S40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="T40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="U40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="V40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="W40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="X40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
       <c r="Y40" t="n">
-        <v>46.97513661859256</v>
+        <v>46.97513661859259</v>
       </c>
     </row>
     <row r="41">
@@ -30654,7 +30654,7 @@
         <v>46.97513661859259</v>
       </c>
       <c r="O43" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859216</v>
       </c>
       <c r="P43" t="n">
         <v>46.97513661859259</v>
@@ -30694,25 +30694,25 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I44" t="n">
         <v>41.57692977292598</v>
@@ -30745,25 +30745,25 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y44" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="C46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="D46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="E46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="F46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="G46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="H46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="I46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="J46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="K46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="L46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="M46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="N46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="O46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="P46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Q46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="R46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="S46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="T46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="U46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="V46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="W46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="X46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
       <c r="Y46" t="n">
-        <v>46.97513661859259</v>
+        <v>46.97513661859256</v>
       </c>
     </row>
   </sheetData>
@@ -31513,49 +31513,49 @@
         <v>0</v>
       </c>
       <c r="G8" t="n">
-        <v>0.1407889878155791</v>
+        <v>0.1188175797544551</v>
       </c>
       <c r="H8" t="n">
-        <v>1.4418552214663</v>
+        <v>1.216840538660314</v>
       </c>
       <c r="I8" t="n">
-        <v>5.427767452760119</v>
+        <v>4.580714743483634</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>10.08449355968469</v>
       </c>
       <c r="K8" t="n">
-        <v>17.90888720884599</v>
+        <v>15.11404171069078</v>
       </c>
       <c r="L8" t="n">
-        <v>22.21755819470702</v>
+        <v>18.75030521710119</v>
       </c>
       <c r="M8" t="n">
-        <v>24.72131435677232</v>
+        <v>20.86332735105948</v>
       </c>
       <c r="N8" t="n">
-        <v>25.12133106840334</v>
+        <v>21.20091779953682</v>
       </c>
       <c r="O8" t="n">
-        <v>23.72136057081217</v>
+        <v>20.01942549085346</v>
       </c>
       <c r="P8" t="n">
-        <v>20.24563243411506</v>
+        <v>17.08611649066535</v>
       </c>
       <c r="Q8" t="n">
-        <v>15.20362680796963</v>
+        <v>12.83096191570892</v>
       </c>
       <c r="R8" t="n">
-        <v>8.843836255870379</v>
+        <v>7.463674794250797</v>
       </c>
       <c r="S8" t="n">
-        <v>3.208229059847512</v>
+        <v>2.707555598654648</v>
       </c>
       <c r="T8" t="n">
-        <v>0.6163037941626979</v>
+        <v>0.5201239553751275</v>
       </c>
       <c r="U8" t="n">
-        <v>0.01126311902524633</v>
+        <v>0.009505406380356405</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,49 +31592,49 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>0.07532874947132619</v>
+        <v>0.06357300977145214</v>
       </c>
       <c r="H9" t="n">
-        <v>0.7275171330520188</v>
+        <v>0.6139814364769194</v>
       </c>
       <c r="I9" t="n">
-        <v>2.593555628727678</v>
+        <v>2.188807573271488</v>
       </c>
       <c r="J9" t="n">
-        <v>7.11691487877999</v>
+        <v>6.006255278451099</v>
       </c>
       <c r="K9" t="n">
-        <v>12.16394109335884</v>
+        <v>10.26564693313839</v>
       </c>
       <c r="L9" t="n">
-        <v>16.35591992358773</v>
+        <v>13.80342916112166</v>
       </c>
       <c r="M9" t="n">
-        <v>19.0865870919233</v>
+        <v>16.1079507653368</v>
       </c>
       <c r="N9" t="n">
-        <v>19.59175225833409</v>
+        <v>16.53428029139184</v>
       </c>
       <c r="O9" t="n">
-        <v>17.92262575689049</v>
+        <v>15.12563623277177</v>
       </c>
       <c r="P9" t="n">
-        <v>14.38448725650263</v>
+        <v>12.1396565764451</v>
       </c>
       <c r="Q9" t="n">
-        <v>9.615648792164375</v>
+        <v>8.11503893152782</v>
       </c>
       <c r="R9" t="n">
-        <v>4.676990252263569</v>
+        <v>3.947103185634547</v>
       </c>
       <c r="S9" t="n">
-        <v>1.399198482504676</v>
+        <v>1.1808407736057</v>
       </c>
       <c r="T9" t="n">
-        <v>0.3036277226497752</v>
+        <v>0.2562438420173881</v>
       </c>
       <c r="U9" t="n">
-        <v>0.004955838781008304</v>
+        <v>0.004182434853385011</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -31671,49 +31671,49 @@
         <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>0.06315309310006206</v>
+        <v>0.05329747583657835</v>
       </c>
       <c r="H10" t="n">
-        <v>0.5614884095623703</v>
+        <v>0.4738630124379424</v>
       </c>
       <c r="I10" t="n">
-        <v>1.899185745227322</v>
+        <v>1.602800455158193</v>
       </c>
       <c r="J10" t="n">
-        <v>4.464923682174388</v>
+        <v>3.76813154164609</v>
       </c>
       <c r="K10" t="n">
-        <v>7.337241180170845</v>
+        <v>6.192197647195193</v>
       </c>
       <c r="L10" t="n">
-        <v>9.389142586894684</v>
+        <v>7.923881089376387</v>
       </c>
       <c r="M10" t="n">
-        <v>9.899534402948818</v>
+        <v>8.354621598637459</v>
       </c>
       <c r="N10" t="n">
-        <v>9.664145601394049</v>
+        <v>8.15596737051931</v>
       </c>
       <c r="O10" t="n">
-        <v>8.926402650179686</v>
+        <v>7.533355948246551</v>
       </c>
       <c r="P10" t="n">
-        <v>7.638079550938413</v>
+        <v>6.446087441180347</v>
       </c>
       <c r="Q10" t="n">
-        <v>5.288210368587925</v>
+        <v>4.46293681755203</v>
       </c>
       <c r="R10" t="n">
-        <v>2.839592713390063</v>
+        <v>2.396448322615604</v>
       </c>
       <c r="S10" t="n">
-        <v>1.100586177025627</v>
+        <v>0.9288296470792788</v>
       </c>
       <c r="T10" t="n">
-        <v>0.2698359432457196</v>
+        <v>0.2277255785744711</v>
       </c>
       <c r="U10" t="n">
-        <v>0.003444714169094298</v>
+        <v>0.00290713504563155</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31987,49 +31987,49 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H14" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I14" t="n">
         <v>168.8989597974799</v>
       </c>
       <c r="J14" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K14" t="n">
-        <v>557.2811376003808</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L14" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M14" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N14" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O14" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P14" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q14" t="n">
-        <v>473.0999946781688</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R14" t="n">
         <v>275.1987363563568</v>
       </c>
       <c r="S14" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T14" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U14" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32066,37 +32066,37 @@
         <v>0</v>
       </c>
       <c r="G15" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H15" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I15" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J15" t="n">
         <v>221.4611312026437</v>
       </c>
       <c r="K15" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L15" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M15" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N15" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O15" t="n">
-        <v>557.7086478970261</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P15" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002933</v>
       </c>
       <c r="Q15" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R15" t="n">
         <v>145.5365940905541</v>
@@ -32105,7 +32105,7 @@
         <v>43.53966346238315</v>
       </c>
       <c r="T15" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U15" t="n">
         <v>0.1542136840462215</v>
@@ -32154,16 +32154,16 @@
         <v>59.09805451742017</v>
       </c>
       <c r="J16" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K16" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L16" t="n">
         <v>292.1673469098819</v>
       </c>
       <c r="M16" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N16" t="n">
         <v>300.7247737883114</v>
@@ -32172,19 +32172,19 @@
         <v>277.7680023086</v>
       </c>
       <c r="P16" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q16" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R16" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S16" t="n">
         <v>34.24757270553035</v>
       </c>
       <c r="T16" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U16" t="n">
         <v>0.1071911508780294</v>
@@ -32224,49 +32224,49 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>4.381011861681596</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H17" t="n">
-        <v>44.86703772844665</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I17" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J17" t="n">
-        <v>371.8329054953987</v>
+        <v>371.8329054953988</v>
       </c>
       <c r="K17" t="n">
-        <v>557.2811376003808</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L17" t="n">
-        <v>691.3565293623191</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M17" t="n">
-        <v>769.2673490574991</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N17" t="n">
-        <v>781.714899009502</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O17" t="n">
-        <v>738.1512123099056</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P17" t="n">
-        <v>629.9949819746411</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q17" t="n">
-        <v>473.0999946781688</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R17" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S17" t="n">
-        <v>99.83230779806946</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T17" t="n">
         <v>19.1778794245112</v>
       </c>
       <c r="U17" t="n">
-        <v>0.3504809489345276</v>
+        <v>0.3504809489345277</v>
       </c>
       <c r="V17" t="n">
         <v>0</v>
@@ -32303,46 +32303,46 @@
         <v>0</v>
       </c>
       <c r="G18" t="n">
-        <v>2.344047997502565</v>
+        <v>2.344047997502566</v>
       </c>
       <c r="H18" t="n">
         <v>22.63856881798531</v>
       </c>
       <c r="I18" t="n">
-        <v>80.70516131752254</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J18" t="n">
-        <v>221.4611312026452</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K18" t="n">
-        <v>378.5123470353155</v>
+        <v>378.5123470353157</v>
       </c>
       <c r="L18" t="n">
-        <v>508.9565619138794</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M18" t="n">
-        <v>593.9283018233473</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N18" t="n">
-        <v>609.6478166837921</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O18" t="n">
-        <v>557.7086478970248</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P18" t="n">
-        <v>447.6103584002925</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q18" t="n">
-        <v>299.2156706987485</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R18" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S18" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T18" t="n">
-        <v>9.448158375898494</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U18" t="n">
         <v>0.1542136840462215</v>
@@ -32382,49 +32382,49 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H19" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I19" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J19" t="n">
-        <v>138.9375967297389</v>
+        <v>138.937596729739</v>
       </c>
       <c r="K19" t="n">
-        <v>228.3171513702023</v>
+        <v>228.3171513702024</v>
       </c>
       <c r="L19" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M19" t="n">
-        <v>308.0495024316431</v>
+        <v>308.0495024316432</v>
       </c>
       <c r="N19" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O19" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P19" t="n">
-        <v>237.6785118802168</v>
+        <v>237.6785118802169</v>
       </c>
       <c r="Q19" t="n">
         <v>164.556281789588</v>
       </c>
       <c r="R19" t="n">
-        <v>88.36123870712211</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S19" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T19" t="n">
-        <v>8.396640152112292</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U19" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -32698,43 +32698,43 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>4.381011861681598</v>
+        <v>4.381011861681597</v>
       </c>
       <c r="H23" t="n">
-        <v>44.86703772844668</v>
+        <v>44.86703772844667</v>
       </c>
       <c r="I23" t="n">
-        <v>168.89895979748</v>
+        <v>168.8989597974799</v>
       </c>
       <c r="J23" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K23" t="n">
-        <v>557.281137600381</v>
+        <v>557.2811376003809</v>
       </c>
       <c r="L23" t="n">
-        <v>691.3565293623194</v>
+        <v>691.3565293623192</v>
       </c>
       <c r="M23" t="n">
-        <v>769.2673490574995</v>
+        <v>769.2673490574992</v>
       </c>
       <c r="N23" t="n">
-        <v>781.7148990095023</v>
+        <v>781.7148990095022</v>
       </c>
       <c r="O23" t="n">
-        <v>738.1512123099059</v>
+        <v>738.1512123099058</v>
       </c>
       <c r="P23" t="n">
-        <v>629.9949819746414</v>
+        <v>629.9949819746412</v>
       </c>
       <c r="Q23" t="n">
-        <v>473.099994678169</v>
+        <v>473.0999946781689</v>
       </c>
       <c r="R23" t="n">
-        <v>275.1987363563569</v>
+        <v>275.1987363563568</v>
       </c>
       <c r="S23" t="n">
-        <v>99.83230779806951</v>
+        <v>99.83230779806949</v>
       </c>
       <c r="T23" t="n">
         <v>19.1778794245112</v>
@@ -32783,40 +32783,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I24" t="n">
-        <v>80.70516131752258</v>
+        <v>80.70516131752255</v>
       </c>
       <c r="J24" t="n">
-        <v>221.4611312026438</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K24" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353165</v>
       </c>
       <c r="L24" t="n">
-        <v>508.9565619138796</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M24" t="n">
-        <v>593.9283018233475</v>
+        <v>593.9283018233474</v>
       </c>
       <c r="N24" t="n">
-        <v>609.6478166837925</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O24" t="n">
-        <v>557.708647897025</v>
+        <v>557.7086478970249</v>
       </c>
       <c r="P24" t="n">
-        <v>447.6103584002927</v>
+        <v>447.6103584002926</v>
       </c>
       <c r="Q24" t="n">
-        <v>299.2156706987487</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R24" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S24" t="n">
-        <v>43.53966346238316</v>
+        <v>43.53966346238315</v>
       </c>
       <c r="T24" t="n">
-        <v>9.448158375898497</v>
+        <v>9.448158375898496</v>
       </c>
       <c r="U24" t="n">
         <v>0.1542136840462215</v>
@@ -32856,13 +32856,13 @@
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>1.965171099430538</v>
+        <v>1.965171099430537</v>
       </c>
       <c r="H25" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I25" t="n">
-        <v>59.09805451742019</v>
+        <v>59.09805451742017</v>
       </c>
       <c r="J25" t="n">
         <v>138.937596729739</v>
@@ -32871,16 +32871,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L25" t="n">
-        <v>292.167346909882</v>
+        <v>292.1673469098819</v>
       </c>
       <c r="M25" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N25" t="n">
-        <v>300.7247737883115</v>
+        <v>300.7247737883114</v>
       </c>
       <c r="O25" t="n">
-        <v>277.7680023086001</v>
+        <v>277.7680023086</v>
       </c>
       <c r="P25" t="n">
         <v>237.6785118802169</v>
@@ -32889,16 +32889,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R25" t="n">
-        <v>88.36123870712215</v>
+        <v>88.36123870712214</v>
       </c>
       <c r="S25" t="n">
-        <v>34.24757270553036</v>
+        <v>34.24757270553035</v>
       </c>
       <c r="T25" t="n">
-        <v>8.396640152112296</v>
+        <v>8.396640152112294</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1071911508780295</v>
+        <v>0.1071911508780294</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33026,7 +33026,7 @@
         <v>221.4611312026437</v>
       </c>
       <c r="K27" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L27" t="n">
         <v>508.9565619138795</v>
@@ -33044,7 +33044,7 @@
         <v>447.6103584002926</v>
       </c>
       <c r="Q27" t="n">
-        <v>299.2156706987494</v>
+        <v>299.2156706987486</v>
       </c>
       <c r="R27" t="n">
         <v>145.5365940905541</v>
@@ -33260,10 +33260,10 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J30" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K30" t="n">
-        <v>378.5123470353157</v>
+        <v>378.5123470353163</v>
       </c>
       <c r="L30" t="n">
         <v>508.9565619138795</v>
@@ -33409,43 +33409,43 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>4.381011861681597</v>
+        <v>4.381011861681598</v>
       </c>
       <c r="H32" t="n">
-        <v>44.86703772844667</v>
+        <v>44.86703772844668</v>
       </c>
       <c r="I32" t="n">
-        <v>168.8989597974799</v>
+        <v>168.89895979748</v>
       </c>
       <c r="J32" t="n">
         <v>371.8329054953988</v>
       </c>
       <c r="K32" t="n">
-        <v>557.2811376003809</v>
+        <v>557.281137600381</v>
       </c>
       <c r="L32" t="n">
-        <v>691.3565293623192</v>
+        <v>691.3565293623194</v>
       </c>
       <c r="M32" t="n">
-        <v>769.2673490574992</v>
+        <v>769.2673490574995</v>
       </c>
       <c r="N32" t="n">
-        <v>781.7148990095022</v>
+        <v>781.7148990095023</v>
       </c>
       <c r="O32" t="n">
-        <v>738.1512123099058</v>
+        <v>738.1512123099059</v>
       </c>
       <c r="P32" t="n">
-        <v>629.9949819746412</v>
+        <v>629.9949819746414</v>
       </c>
       <c r="Q32" t="n">
-        <v>473.0999946781689</v>
+        <v>473.099994678169</v>
       </c>
       <c r="R32" t="n">
-        <v>275.1987363563568</v>
+        <v>275.1987363563569</v>
       </c>
       <c r="S32" t="n">
-        <v>99.83230779806949</v>
+        <v>99.83230779806951</v>
       </c>
       <c r="T32" t="n">
         <v>19.1778794245112</v>
@@ -33494,40 +33494,40 @@
         <v>22.63856881798531</v>
       </c>
       <c r="I33" t="n">
-        <v>80.70516131752255</v>
+        <v>80.70516131752258</v>
       </c>
       <c r="J33" t="n">
-        <v>221.4611312026444</v>
+        <v>221.4611312026438</v>
       </c>
       <c r="K33" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L33" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138796</v>
       </c>
       <c r="M33" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233475</v>
       </c>
       <c r="N33" t="n">
-        <v>609.6478166837924</v>
+        <v>609.6478166837925</v>
       </c>
       <c r="O33" t="n">
-        <v>557.7086478970249</v>
+        <v>557.708647897025</v>
       </c>
       <c r="P33" t="n">
-        <v>447.6103584002926</v>
+        <v>447.6103584002927</v>
       </c>
       <c r="Q33" t="n">
-        <v>299.2156706987486</v>
+        <v>299.2156706987487</v>
       </c>
       <c r="R33" t="n">
         <v>145.5365940905541</v>
       </c>
       <c r="S33" t="n">
-        <v>43.53966346238315</v>
+        <v>43.53966346238316</v>
       </c>
       <c r="T33" t="n">
-        <v>9.448158375898496</v>
+        <v>9.448158375898497</v>
       </c>
       <c r="U33" t="n">
         <v>0.1542136840462215</v>
@@ -33567,13 +33567,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>1.965171099430537</v>
+        <v>1.965171099430538</v>
       </c>
       <c r="H34" t="n">
         <v>17.47215759311879</v>
       </c>
       <c r="I34" t="n">
-        <v>59.09805451742017</v>
+        <v>59.09805451742019</v>
       </c>
       <c r="J34" t="n">
         <v>138.937596729739</v>
@@ -33582,16 +33582,16 @@
         <v>228.3171513702024</v>
       </c>
       <c r="L34" t="n">
-        <v>292.1673469098819</v>
+        <v>292.167346909882</v>
       </c>
       <c r="M34" t="n">
         <v>308.0495024316432</v>
       </c>
       <c r="N34" t="n">
-        <v>300.7247737883114</v>
+        <v>300.7247737883115</v>
       </c>
       <c r="O34" t="n">
-        <v>277.7680023086</v>
+        <v>277.7680023086001</v>
       </c>
       <c r="P34" t="n">
         <v>237.6785118802169</v>
@@ -33600,16 +33600,16 @@
         <v>164.556281789588</v>
       </c>
       <c r="R34" t="n">
-        <v>88.36123870712214</v>
+        <v>88.36123870712215</v>
       </c>
       <c r="S34" t="n">
-        <v>34.24757270553035</v>
+        <v>34.24757270553036</v>
       </c>
       <c r="T34" t="n">
-        <v>8.396640152112294</v>
+        <v>8.396640152112296</v>
       </c>
       <c r="U34" t="n">
-        <v>0.1071911508780294</v>
+        <v>0.1071911508780295</v>
       </c>
       <c r="V34" t="n">
         <v>0</v>
@@ -33740,10 +33740,10 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L36" t="n">
-        <v>508.9565619138802</v>
+        <v>508.9565619138795</v>
       </c>
       <c r="M36" t="n">
-        <v>593.9283018233474</v>
+        <v>593.9283018233481</v>
       </c>
       <c r="N36" t="n">
         <v>609.6478166837924</v>
@@ -33977,13 +33977,13 @@
         <v>378.5123470353157</v>
       </c>
       <c r="L39" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M39" t="n">
         <v>593.9283018233474</v>
       </c>
       <c r="N39" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O39" t="n">
         <v>557.7086478970249</v>
@@ -34220,10 +34220,10 @@
         <v>593.9283018233474</v>
       </c>
       <c r="N42" t="n">
-        <v>609.6478166837931</v>
+        <v>609.6478166837924</v>
       </c>
       <c r="O42" t="n">
-        <v>557.7086478970249</v>
+        <v>557.7086478970255</v>
       </c>
       <c r="P42" t="n">
         <v>447.6103584002926</v>
@@ -34445,13 +34445,13 @@
         <v>80.70516131752255</v>
       </c>
       <c r="J45" t="n">
-        <v>221.4611312026445</v>
+        <v>221.4611312026437</v>
       </c>
       <c r="K45" t="n">
         <v>378.5123470353157</v>
       </c>
       <c r="L45" t="n">
-        <v>508.9565619138795</v>
+        <v>508.9565619138802</v>
       </c>
       <c r="M45" t="n">
         <v>593.9283018233474</v>
@@ -35565,28 +35565,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>83.72230658589308</v>
+        <v>87.15534638599217</v>
       </c>
       <c r="K13" t="n">
-        <v>244.1915495171464</v>
+        <v>247.6245893172455</v>
       </c>
       <c r="L13" t="n">
-        <v>357.901262143025</v>
+        <v>361.3343019431242</v>
       </c>
       <c r="M13" t="n">
-        <v>385.7772693663107</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N13" t="n">
-        <v>383.0008361403669</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O13" t="n">
-        <v>340.4970201954666</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P13" t="n">
-        <v>273.1009611179373</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q13" t="n">
-        <v>116.5381285107205</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -35644,31 +35644,31 @@
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K14" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L14" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923319</v>
       </c>
       <c r="M14" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N14" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O14" t="n">
-        <v>508.0530008882189</v>
+        <v>508.053000888219</v>
       </c>
       <c r="P14" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q14" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R14" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222472</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -35723,28 +35723,28 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>94.62350453597702</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K15" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L15" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M15" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N15" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O15" t="n">
-        <v>415.1124034525818</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P15" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859631</v>
       </c>
       <c r="Q15" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R15" t="n">
         <v>0</v>
@@ -35802,28 +35802,28 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>83.72230658589302</v>
+        <v>87.15534638599212</v>
       </c>
       <c r="K16" t="n">
-        <v>244.1915495171463</v>
+        <v>247.6245893172454</v>
       </c>
       <c r="L16" t="n">
-        <v>357.9012621430248</v>
+        <v>361.334301943124</v>
       </c>
       <c r="M16" t="n">
-        <v>385.7772693663106</v>
+        <v>389.2103091664097</v>
       </c>
       <c r="N16" t="n">
-        <v>383.0008361403668</v>
+        <v>386.433875940466</v>
       </c>
       <c r="O16" t="n">
-        <v>340.4970201954665</v>
+        <v>343.9300599955657</v>
       </c>
       <c r="P16" t="n">
-        <v>273.1009611179372</v>
+        <v>276.5340009180363</v>
       </c>
       <c r="Q16" t="n">
-        <v>116.5381285107204</v>
+        <v>119.9711683108196</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,31 +35881,31 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>190.7870009687124</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K17" t="n">
-        <v>337.1912865554003</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L17" t="n">
-        <v>455.5901143923318</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M17" t="n">
-        <v>538.9211158302264</v>
+        <v>538.9211158302268</v>
       </c>
       <c r="N17" t="n">
-        <v>552.301835412911</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O17" t="n">
-        <v>508.0530008882189</v>
+        <v>508.0530008882191</v>
       </c>
       <c r="P17" t="n">
-        <v>398.7619862193715</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q17" t="n">
-        <v>250.7943048037193</v>
+        <v>250.7943048037195</v>
       </c>
       <c r="R17" t="n">
-        <v>59.61319854222467</v>
+        <v>59.61319854222478</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35960,28 +35960,28 @@
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>94.6235045359785</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K18" t="n">
-        <v>240.6709080609565</v>
+        <v>240.6709080609567</v>
       </c>
       <c r="L18" t="n">
-        <v>370.4021821340052</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M18" t="n">
-        <v>451.794267901329</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N18" t="n">
-        <v>478.3061046004589</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O18" t="n">
-        <v>415.1124034525803</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P18" t="n">
-        <v>313.6359509859623</v>
+        <v>313.6359509859624</v>
       </c>
       <c r="Q18" t="n">
-        <v>159.233896612727</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>45.57841661306617</v>
+        <v>96.25037875194306</v>
       </c>
       <c r="K19" t="n">
-        <v>206.0476595443195</v>
+        <v>256.7196216831964</v>
       </c>
       <c r="L19" t="n">
-        <v>319.757372170198</v>
+        <v>319.7573721701981</v>
       </c>
       <c r="M19" t="n">
-        <v>349.8263914359449</v>
+        <v>398.3053415323607</v>
       </c>
       <c r="N19" t="n">
-        <v>400.9690456230592</v>
+        <v>395.528908306417</v>
       </c>
       <c r="O19" t="n">
-        <v>358.4652296781589</v>
+        <v>353.0250923615166</v>
       </c>
       <c r="P19" t="n">
-        <v>291.0691706006296</v>
+        <v>246.3762144168505</v>
       </c>
       <c r="Q19" t="n">
-        <v>134.5063379934128</v>
+        <v>129.0662006767705</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>101.6905160685855</v>
+        <v>45.5784166130662</v>
       </c>
       <c r="K22" t="n">
-        <v>262.1597589998388</v>
+        <v>256.7196216831964</v>
       </c>
       <c r="L22" t="n">
-        <v>375.8694716257173</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M22" t="n">
-        <v>347.6333793934838</v>
+        <v>398.3053415323606</v>
       </c>
       <c r="N22" t="n">
-        <v>344.8569461675401</v>
+        <v>356.2760894392804</v>
       </c>
       <c r="O22" t="n">
-        <v>302.3531302226397</v>
+        <v>353.0250923615166</v>
       </c>
       <c r="P22" t="n">
-        <v>237.1500831875713</v>
+        <v>285.6290332839872</v>
       </c>
       <c r="Q22" t="n">
-        <v>134.5063379934129</v>
+        <v>129.0662006767705</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36355,31 +36355,31 @@
         <v>0</v>
       </c>
       <c r="J23" t="n">
-        <v>190.7870009687126</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K23" t="n">
-        <v>337.1912865554005</v>
+        <v>337.1912865554004</v>
       </c>
       <c r="L23" t="n">
-        <v>455.5901143923322</v>
+        <v>873.2513289427824</v>
       </c>
       <c r="M23" t="n">
-        <v>538.9211158302268</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N23" t="n">
-        <v>552.3018354129115</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O23" t="n">
-        <v>508.0530008882191</v>
+        <v>696.2176715858911</v>
       </c>
       <c r="P23" t="n">
-        <v>720.5606943908545</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q23" t="n">
-        <v>463.1092954636242</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R23" t="n">
-        <v>119.3334868715347</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36434,28 +36434,28 @@
         <v>0</v>
       </c>
       <c r="J24" t="n">
-        <v>94.6235045359771</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K24" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609575</v>
       </c>
       <c r="L24" t="n">
-        <v>370.4021821340054</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M24" t="n">
-        <v>451.7942679013292</v>
+        <v>451.7942679013291</v>
       </c>
       <c r="N24" t="n">
-        <v>478.3061046004592</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O24" t="n">
-        <v>415.1124034525806</v>
+        <v>415.1124034525805</v>
       </c>
       <c r="P24" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q24" t="n">
-        <v>159.2338966127272</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R24" t="n">
         <v>0</v>
@@ -36513,28 +36513,28 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>45.57841661306622</v>
+        <v>96.25037875194303</v>
       </c>
       <c r="K25" t="n">
-        <v>206.0476595443196</v>
+        <v>256.7196216831964</v>
       </c>
       <c r="L25" t="n">
-        <v>319.7573721701981</v>
+        <v>370.4293343090749</v>
       </c>
       <c r="M25" t="n">
-        <v>403.7454788490031</v>
+        <v>398.3053415323606</v>
       </c>
       <c r="N25" t="n">
-        <v>400.9690456230593</v>
+        <v>356.2760894392802</v>
       </c>
       <c r="O25" t="n">
-        <v>358.4652296781591</v>
+        <v>353.0250923615166</v>
       </c>
       <c r="P25" t="n">
-        <v>291.0691706006297</v>
+        <v>285.6290332839872</v>
       </c>
       <c r="Q25" t="n">
-        <v>80.58725058035404</v>
+        <v>78.39423853789363</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36592,7 +36592,7 @@
         <v>0</v>
       </c>
       <c r="J26" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K26" t="n">
         <v>337.1912865554004</v>
@@ -36601,19 +36601,19 @@
         <v>455.5901143923319</v>
       </c>
       <c r="M26" t="n">
-        <v>538.9211158302265</v>
+        <v>988.434649323059</v>
       </c>
       <c r="N26" t="n">
-        <v>552.3018354129113</v>
+        <v>761.4205919064721</v>
       </c>
       <c r="O26" t="n">
         <v>508.053000888219</v>
       </c>
       <c r="P26" t="n">
-        <v>675.9826703737876</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q26" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R26" t="n">
         <v>125.3296184152072</v>
@@ -36674,7 +36674,7 @@
         <v>94.62350453597705</v>
       </c>
       <c r="K27" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L27" t="n">
         <v>370.4021821340053</v>
@@ -36692,7 +36692,7 @@
         <v>313.6359509859624</v>
       </c>
       <c r="Q27" t="n">
-        <v>159.2338966127279</v>
+        <v>159.2338966127271</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,7 +36750,7 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>92.55355323165877</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K28" t="n">
         <v>253.0227961629121</v>
@@ -36759,7 +36759,7 @@
         <v>366.7325087887907</v>
       </c>
       <c r="M28" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N28" t="n">
         <v>391.8320827861326</v>
@@ -36768,7 +36768,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P28" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q28" t="n">
         <v>125.3693751564862</v>
@@ -36832,16 +36832,16 @@
         <v>190.7870009687125</v>
       </c>
       <c r="K29" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L29" t="n">
-        <v>455.5901143923319</v>
+        <v>790.0769918075607</v>
       </c>
       <c r="M29" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N29" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O29" t="n">
         <v>508.053000888219</v>
@@ -36853,7 +36853,7 @@
         <v>250.7943048037194</v>
       </c>
       <c r="R29" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S29" t="n">
         <v>0</v>
@@ -36908,10 +36908,10 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>94.62350453597773</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K30" t="n">
-        <v>240.6709080609567</v>
+        <v>240.6709080609573</v>
       </c>
       <c r="L30" t="n">
         <v>370.4021821340053</v>
@@ -36993,7 +36993,7 @@
         <v>253.0227961629121</v>
       </c>
       <c r="L31" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M31" t="n">
         <v>394.6085160120763</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>190.7870009687125</v>
+        <v>190.7870009687126</v>
       </c>
       <c r="K32" t="n">
-        <v>337.1912865554004</v>
+        <v>337.1912865554005</v>
       </c>
       <c r="L32" t="n">
-        <v>455.5901143923319</v>
+        <v>455.5901143923322</v>
       </c>
       <c r="M32" t="n">
-        <v>988.434649323059</v>
+        <v>604.4382338939689</v>
       </c>
       <c r="N32" t="n">
-        <v>827.1370117794555</v>
+        <v>552.3018354129115</v>
       </c>
       <c r="O32" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509645</v>
       </c>
       <c r="P32" t="n">
-        <v>398.7619862193716</v>
+        <v>398.7619862193719</v>
       </c>
       <c r="Q32" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636242</v>
       </c>
       <c r="R32" t="n">
-        <v>59.61319854222472</v>
+        <v>125.3296184152072</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37145,28 +37145,28 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>94.62350453597773</v>
+        <v>94.6235045359771</v>
       </c>
       <c r="K33" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L33" t="n">
-        <v>370.4021821340053</v>
+        <v>370.4021821340054</v>
       </c>
       <c r="M33" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013292</v>
       </c>
       <c r="N33" t="n">
-        <v>478.3061046004591</v>
+        <v>478.3061046004592</v>
       </c>
       <c r="O33" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525806</v>
       </c>
       <c r="P33" t="n">
         <v>313.6359509859624</v>
       </c>
       <c r="Q33" t="n">
-        <v>159.2338966127271</v>
+        <v>159.2338966127272</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37236,7 +37236,7 @@
         <v>394.6085160120764</v>
       </c>
       <c r="N34" t="n">
-        <v>391.8320827861326</v>
+        <v>391.8320827861327</v>
       </c>
       <c r="O34" t="n">
         <v>349.3282668412323</v>
@@ -37303,7 +37303,7 @@
         <v>0</v>
       </c>
       <c r="J35" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K35" t="n">
         <v>337.1912865554004</v>
@@ -37318,16 +37318,16 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O35" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P35" t="n">
-        <v>675.9826703737876</v>
+        <v>720.5606943908542</v>
       </c>
       <c r="Q35" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R35" t="n">
-        <v>125.3296184152072</v>
+        <v>81.36301896737301</v>
       </c>
       <c r="S35" t="n">
         <v>0</v>
@@ -37388,10 +37388,10 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L36" t="n">
-        <v>370.402182134006</v>
+        <v>370.4021821340053</v>
       </c>
       <c r="M36" t="n">
-        <v>451.7942679013291</v>
+        <v>451.7942679013298</v>
       </c>
       <c r="N36" t="n">
         <v>478.3061046004591</v>
@@ -37464,7 +37464,7 @@
         <v>92.55355323165875</v>
       </c>
       <c r="K37" t="n">
-        <v>253.0227961629121</v>
+        <v>253.0227961629122</v>
       </c>
       <c r="L37" t="n">
         <v>366.7325087887906</v>
@@ -37540,19 +37540,19 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K38" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L38" t="n">
-        <v>455.5901143923319</v>
+        <v>676.8754799667412</v>
       </c>
       <c r="M38" t="n">
-        <v>988.434649323059</v>
+        <v>538.9211158302265</v>
       </c>
       <c r="N38" t="n">
-        <v>592.3239767343993</v>
+        <v>989.6487598248955</v>
       </c>
       <c r="O38" t="n">
         <v>508.053000888219</v>
@@ -37625,13 +37625,13 @@
         <v>240.6709080609567</v>
       </c>
       <c r="L39" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M39" t="n">
         <v>451.7942679013291</v>
       </c>
       <c r="N39" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O39" t="n">
         <v>415.1124034525805</v>
@@ -37698,25 +37698,25 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>92.55355323165875</v>
+        <v>92.55355323165878</v>
       </c>
       <c r="K40" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L40" t="n">
-        <v>366.7325087887906</v>
+        <v>366.7325087887907</v>
       </c>
       <c r="M40" t="n">
-        <v>394.6085160120763</v>
+        <v>394.6085160120764</v>
       </c>
       <c r="N40" t="n">
-        <v>391.8320827861326</v>
+        <v>391.832082786132</v>
       </c>
       <c r="O40" t="n">
         <v>349.3282668412323</v>
       </c>
       <c r="P40" t="n">
-        <v>281.9322077637029</v>
+        <v>281.932207763703</v>
       </c>
       <c r="Q40" t="n">
         <v>125.3693751564862</v>
@@ -37777,10 +37777,10 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>190.7870009687125</v>
+        <v>359.8836161407863</v>
       </c>
       <c r="K41" t="n">
-        <v>337.1912865554004</v>
+        <v>661.3366991265651</v>
       </c>
       <c r="L41" t="n">
         <v>455.5901143923319</v>
@@ -37789,16 +37789,16 @@
         <v>538.9211158302265</v>
       </c>
       <c r="N41" t="n">
-        <v>574.0516558380597</v>
+        <v>552.3018354129113</v>
       </c>
       <c r="O41" t="n">
-        <v>888.8531821509644</v>
+        <v>526.8446923444521</v>
       </c>
       <c r="P41" t="n">
-        <v>720.5606943908542</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q41" t="n">
-        <v>250.7943048037194</v>
+        <v>463.1092954636241</v>
       </c>
       <c r="R41" t="n">
         <v>59.61319854222472</v>
@@ -37868,10 +37868,10 @@
         <v>451.7942679013291</v>
       </c>
       <c r="N42" t="n">
-        <v>478.3061046004598</v>
+        <v>478.3061046004591</v>
       </c>
       <c r="O42" t="n">
-        <v>415.1124034525805</v>
+        <v>415.1124034525811</v>
       </c>
       <c r="P42" t="n">
         <v>313.6359509859624</v>
@@ -37950,7 +37950,7 @@
         <v>391.8320827861326</v>
       </c>
       <c r="O43" t="n">
-        <v>349.3282668412323</v>
+        <v>349.3282668412319</v>
       </c>
       <c r="P43" t="n">
         <v>281.932207763703</v>
@@ -38014,13 +38014,13 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>359.8836161407863</v>
+        <v>190.7870009687125</v>
       </c>
       <c r="K44" t="n">
         <v>337.1912865554004</v>
       </c>
       <c r="L44" t="n">
-        <v>455.5901143923319</v>
+        <v>733.4222231159802</v>
       </c>
       <c r="M44" t="n">
         <v>538.9211158302265</v>
@@ -38029,13 +38029,13 @@
         <v>552.3018354129113</v>
       </c>
       <c r="O44" t="n">
-        <v>508.053000888219</v>
+        <v>888.8531821509644</v>
       </c>
       <c r="P44" t="n">
-        <v>675.9826703737863</v>
+        <v>398.7619862193716</v>
       </c>
       <c r="Q44" t="n">
-        <v>463.1092954636241</v>
+        <v>250.7943048037194</v>
       </c>
       <c r="R44" t="n">
         <v>125.3296184152072</v>
@@ -38093,13 +38093,13 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>94.62350453597776</v>
+        <v>94.62350453597705</v>
       </c>
       <c r="K45" t="n">
         <v>240.6709080609567</v>
       </c>
       <c r="L45" t="n">
-        <v>370.4021821340053</v>
+        <v>370.402182134006</v>
       </c>
       <c r="M45" t="n">
         <v>451.7942679013291</v>
@@ -38172,16 +38172,16 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>92.55355323165878</v>
+        <v>92.55355323165875</v>
       </c>
       <c r="K46" t="n">
         <v>253.0227961629121</v>
       </c>
       <c r="L46" t="n">
-        <v>366.7325087887907</v>
+        <v>366.7325087887906</v>
       </c>
       <c r="M46" t="n">
-        <v>394.6085160120764</v>
+        <v>394.6085160120763</v>
       </c>
       <c r="N46" t="n">
         <v>391.8320827861326</v>
@@ -38190,7 +38190,7 @@
         <v>349.3282668412323</v>
       </c>
       <c r="P46" t="n">
-        <v>281.932207763703</v>
+        <v>281.9322077637029</v>
       </c>
       <c r="Q46" t="n">
         <v>125.3693751564862</v>
